--- a/wallet_info.xlsx
+++ b/wallet_info.xlsx
@@ -453,1700 +453,1700 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>party lock letter snake high coffee movie ice image live until town brain skull rocket fat update start bundle limit cousin cancel almost embrace</t>
+          <t>citizen permit shove wall uncle neutral merit absent corn shell attitude throw claw garden armor better room alarm certain vital section vast surge october</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0xa0906e026696b85a643b81715057b8f321af95aeda9bee9a947940f3164241b2</t>
+          <t>0x2954671c7b5ec929e2e0053078ac3af0a2a0bf42f8acbbe0b896fa8c2be37694</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0xc9eA43870aA096bB0a635bcF27910Edf00C277b2</t>
+          <t>0xee8E4643Df1032B9ACEA5C927474f5909501e706</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>lady earn fiber breeze seven salmon viable tide wool exercise pilot panic mango frame what title latin turkey logic absorb salt anxiety sphere plastic</t>
+          <t>velvet adult potato salmon night book elbow story matter ahead until multiply weasel water review tribe okay giraffe magic learn hunt omit when oxygen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0x7c88a9568dcc4b7cfcd70efd49ea93cfd872b93e77177d7d560e006bea14345d</t>
+          <t>0xf2007aa35f39583311ceb48940a7b8c8bf89efae274299ec46173f66f734fe8c</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0xcC619601B0cd89BaBf5a5d2393978a8f7a79517e</t>
+          <t>0xE44fe4a22886F2eEE41FfBD3820C34a03d93B204</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>museum paper valley maze cool idea now odor retire hockey atom album denial mushroom van verb donkey sound together galaxy cheese swap broken use</t>
+          <t>spray fresh boring shift lake minimum parade else lamp maid neither taxi radar forest tray struggle sister inhale enforce middle kind side puppy habit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0x91b3ffc3c4c2fce0e5ccc9b7ed8c3902f3a723bc4f944139fb8eaf7273b68727</t>
+          <t>0xd2eb9867e2e7cb1a2802417cd0c250ef3b0ab679eebac98e7528c627a98feb83</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x84ffA4DCb9480131Bd5A367eF4bB6e81a98857e3</t>
+          <t>0x893497fe8904898E8BE2CD9da7EfaF4bc7441C60</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nature cloud suspect affair behind degree anxiety fuel bamboo small camp route inspire what suffer swing pistol cart celery clutch much moon ask sample</t>
+          <t>absent silver mosquito shove park spike story toilet since embark joy thumb suffer pride scorpion gown steel avocado cloth memory junior uncover tunnel strategy</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0x93657f6b022148738282ef12198c835e4755f3b62ee0a56460941649111f0355</t>
+          <t>0x00b91a40638a05a3b5a71ec92909e270bd8b55304b29d521fcaf457793d97aa6</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0x1F1f43f1e2a614041c3B9f23baAd51b1f49E7781</t>
+          <t>0xcb5BdbfE96AE1D2a649c16Ad14Bef4cC98c558A1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>bunker day heavy swarm dentist box better swarm column joke wish vault fork stamp lazy stay clog ecology fog replace body pistol fragile jazz</t>
+          <t>mail snake clip region predict faith autumn sun couch front remind front cheese acid fiscal menu maze crush trip assume caution purchase blouse rally</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0x1e6701a9edb3a8350566db2dcf0bf278e5b7a8df9ea72b88c1695b618f4ad71b</t>
+          <t>0x8639a4ad5a4a9aa403eeca30ebaad72ea27203d5e4598986a3a306f24b5c460d</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0xe4f568AD423edeCC1A0FFA82bC9c88d73bC6065f</t>
+          <t>0x0AC82f800713B5d1fB8Ce523a8e9607540c58603</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jelly help basket stadium hub universe spray broom enter slight foam hold next summer mushroom day grace head afraid oil light foam inspire lyrics</t>
+          <t>cool crisp era element spider top modify duck cake bacon leave pass cement nature syrup ice forward forward frozen mixed popular couple snake salt</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0x77cd604ce9f6e9dbb4b8e64b797568364955b26471c0656d40124ce818b41d54</t>
+          <t>0x2fc6753123dd1bc9e3aa1e204229fbd0525326f72b815bcb7976c71a8262734d</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x581324E58Cd7Df62314963A87413e5bdb8304719</t>
+          <t>0x0722A99Df23d4D50285D8A6997fE64b9Da62AAbe</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>then wage side resist annual uphold stereo drip velvet moon finger maid enact apple thunder buzz lens thunder type auto stem stable now assume</t>
+          <t>benefit parent rookie over globe desert order orbit tone carry genre vibrant wrong town planet soap rebel today gadget document pole cargo action coyote</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0xe03ec71fdbb097ddb56219f211f15bc30496157860fc803c33af07cd55a7a5c8</t>
+          <t>0x153406ef4ef63477670cdfe4445d8479bfebcca97e6db33c697aa03a784540a1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x2B1dDEB58884558aD27d717c03F63Bd1D8e6028F</t>
+          <t>0x14B4107A325488E050c9C497fC58c850BCCc8925</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>inherit gallery match audit nature april outer radar curve quarter sting judge reject garbage spray mean donor night vacant public unfair weird tomato abstract</t>
+          <t>entire result scout finish shift wrap mix joy volume inner soul young tenant federal laundry crisp pride attitude cabbage multiply uphold scout smoke fortune</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0x73cbe22307893615e755853655ef57bc5b4ebf34bc4e4152b3c1d68ed1f27900</t>
+          <t>0x4b96fb052b8c5dfc2383c4f5ce8f3effadf0a8df699daa81d47ec8beed82b332</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x6A527Ceed387E42c82ee445119b0BB83DBBA8666</t>
+          <t>0x4c6449DE46996dCdcef89CB9D10Eb2B30c141d16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>fine until ozone culture ticket regret entry monitor because annual theory allow fortune adult crunch ring cousin private reward deliver answer child wedding august</t>
+          <t>add quality usual shoulder index kiss glance learn hire excite people battle easily dizzy morning embark movie orange stable staff six eagle right little</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0x56ddc67a1ace1b6952ec7813c12f810355b8078d3dd0317566e29d009a4ffe38</t>
+          <t>0x0335e7c0e3772cf598abf66c09da8b09a4588063fa4290f37b4f6a0c9c8a2e74</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x116256C8E65ce16E1EB797422335016b9F07A3c6</t>
+          <t>0x21F0Fd336ff79C09014Cf8448ebCFC09676270D9</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>century unhappy target about approve health example audit melody differ tool across ensure asthma hollow physical staff donor ski hidden soft inquiry rate whale</t>
+          <t>average cricket stick learn response coast magnet various captain scout asthma struggle wine rigid salt dress goat reject edge owner column sorry settle tip</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0x257dab778030acd45398788a87bb928124b41c1b3d1fd4082b2935bce4e9ac8f</t>
+          <t>0x0fc66f56bf6b7a59a17f8c223828386bafb973efaa1564169d194f12dd9ef11f</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x4fC6Dde29e9463205243a0f972bfEC9AA7eFe8aF</t>
+          <t>0x7D2f3326Ea1385a668E26dCb80815B3AdEdA099f</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>spray unveil silk baby uphold pelican turkey course uphold jeans child blush decrease wrap census leave warrior road smart rare wasp sleep profit weird</t>
+          <t>avocado flat catalog trick replace spike benefit safe arrive eagle choose pass excess gossip early window jump cattle betray burst civil catalog sniff steak</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0xd2fdcf22088eed44baa98aeecef49f8c4393fc0953f7f7575f32590f79966af7</t>
+          <t>0x0feb108ff43b6da3854df00c88a0a15054e8c9d14fdb78e488558f629847f35e</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0x64D3B07cCae8f32ce754eDbA31Dc91B7A367c3c7</t>
+          <t>0xC088475DD7968Ac16dC42530367EAB6Ab9b79C63</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>elbow artefact wear juice when insect purchase domain rate cave culture write chief appear update enforce robust illness space shiver health column invite fly</t>
+          <t>drum diet token foam angry science aunt venue trash nothing paddle misery ten tent always prison rescue game bring hire below say toast initial</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0x47219fe1bc6fa2ea2b8a07b22498d67f427c153ba251bb4e27416316a25b9d82</t>
+          <t>0x4387b78fad008f81c3d793e772da7b46ddefbe81e558b72be470b6014d7ff8c3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0xbe95bbFc02bEeEe84aE64CBFf910847E92EF85b1</t>
+          <t>0xeAeb80Cb49c490cd070Fc0B02A14eAcD6Fc85dEf</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>buyer whisper pond diagram loud unlock food increase blame inmate misery whale car into dose minor van smooth great false cancel above wage talent</t>
+          <t>asset junk blanket discover auto mention notable track middle raccoon catalog unit flip moment oak turkey sustain smooth borrow jaguar snake beauty clever ghost</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0x1f7f529f1e7843dc16b395172e8a36fcd224eb906469f1399d98a92212013d8e</t>
+          <t>0x0daf285d1f70f91625a7348c56088ff6d5911de5f755daf99c683b9cd2274aa3</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x657A04d2F012173e935d88eb51990966558410D0</t>
+          <t>0x980A45cca06ACd8D13a37e511bfB10F8fd296cc1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bacon bike margin equal possible require range orbit infant arena noise faith lion joke solution gasp cave shove asthma crowd will force host assume</t>
+          <t>shadow spy warm abuse escape tiger lock grief meadow just example crystal settle evil goat similar genuine because rally awful connect street emotion review</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0x1142c61fa60a896e2c74df73416e57290822f0b3b30124d8e0381a2fb2b61b80</t>
+          <t>0xc4da6bdc8094d1c3e0db3489af2d399aac469bd9064761427ac50852f3add235</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0x17038C0c1c16c6e74868D3856Eec91A40E3e2B27</t>
+          <t>0xd29a31299189856b79a1e3272004EB19247828FA</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>gate infant stove night cradle kite picnic lawn clog buddy alien broom unaware mother announce match comic tool vanish roof sunset degree income marble</t>
+          <t>female name silly husband female soda isolate top clump matrix either whale burst drip critic grocery swim canvas owner dust lens satisfy follow road</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0x604e6b5acac31ef6690bf02b83ac190e6ec7204254462e5c97c55ddd98739ca4</t>
+          <t>0x54f25b22b7f54f9c5da7272c51251c7cd1ec864cf336dbe43678a228037e96ad</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x890bF8a2cBCcE4c1f435e08E57E1C4097919d9e7</t>
+          <t>0x9B871E7670CD86c2e6d75223eb0ac7bf600E0308</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>discover super pistol purpose wood grass festival people economy jeans evidence add develop cream fire velvet knock castle hat busy mix venue account gadget</t>
+          <t>napkin kind sure around shaft tag almost piano mixture matrix soap return lecture neutral push traffic hockey despair noble always two caution arrow exclude</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0x3efb3695d73fd2cbd54d16462ef5370193c865d5cf907bc471a60f98e1e4c062</t>
+          <t>0x92ef5368061c4fba41b5208e512736dc17f129ebaf366c67825683ceba49432a</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x3265901A185Da42B3665E60C2D3E192498f67D24</t>
+          <t>0x78F3012ae664Ea350c2Abf085921DC99B1d5e76F</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>tennis arrow swamp heart bicycle family survey deal web eternal bomb hole border decide liberty merry slow frozen doll switch grass bind vote upon</t>
+          <t>sail try someone such yard novel idea body donor hockey drill athlete mercy liberty tragic flight begin engine wall reflect double gun surge health</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0xdf21976cb5215ea536a9c1f8c9b064b6519c71a03c5dcc2bb502ee165e2cbd7f</t>
+          <t>0xbe3d3f3c6c3fed2e1c18c7414d8d0b8718b501f9bac714494fdada141acff693</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0xff60D360d0E905E7a7bb9cF2d0FEf9f2c939AEf8</t>
+          <t>0x368f15c3593c042dF4b2C325241f617d4ea619d8</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dolphin decorate possible faculty note around monkey crush coin episode alarm neutral edge direct cool forget oven lock negative special immune gas diary orient</t>
+          <t>daughter outer devote carbon erupt cricket suspect primary olympic stock dose endless issue hidden cream scene deer sing craft enter feel found foil park</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0x40c722a228d96a1863c9a82d697c174a74647d0bf2da9dd06e4fe8771ac00f54</t>
+          <t>0x37d3a8f31134ce66f6b5559a5ac10624d76ad6ccbe04395928c825b54cb8569d</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0x3246e2d9aF1A8751670d828943D70a9C06066473</t>
+          <t>0xEAEE0221010Fc6c9F6cAd1fF1958b0c7F686B349</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>spend globe curve piece game scrap alert fix company atom food gas hero sea satoshi pipe vague stadium always wave artwork limit field magnet</t>
+          <t>glimpse seven host stool antique crush stumble gap coconut success print prison supreme fan jelly ramp tray zebra stairs copy pigeon often civil because</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0xd14c68d95235f382c18ac02e81c96b3006b583efdd2af0ba7c1e7bf0d303d57c</t>
+          <t>0x633895b86b309e6a35eafa2cfb0aab558d9ea59df58be7bff351180a4b334a60</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0x59743922A67B8d05cAaD3B92c5B9a6eb0410DD00</t>
+          <t>0xB2ED0B3297DbAE28E872AC833c7DB0778f7ebc45</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>faint hard fresh cake salad token kite bomb stable situate globe fossil front drift layer rhythm phone desert ill physical laundry breeze brief science</t>
+          <t>spare paddle knee mix exotic track taxi wait caught devote stand general soap primary area build donkey valley fit fiber arch craft awesome name</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0x51ed2573102be5c7dec8c9d3d9358d2df5d4859f95c6a38775c3d1f7da3706fe</t>
+          <t>0xd073d9ee470501cd379fb324679b52306cdb5542d0ee413e1d5f2ad0b0640424</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0x229794bb8fd5F721FaB3D315c5bC313B802A13C9</t>
+          <t>0xdCD11B3edab81C051bf783d51789b403970105df</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>total gesture muffin october adjust comic chunk text axis despair fun jeans collect asset holiday shoot topic fortune rural digital label chronic fish clarify</t>
+          <t>weird jeans human asset amount over alley innocent maze quarter tunnel cricket surround orient name inch scorpion organ spy mutual common feature decade style</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0xe5cc2e44cc80385c8a2efd10e781783bd2d81b5b3634e50b72f61ef7c250d5e9</t>
+          <t>0xf92ef5bb06d0813bc1a3a48995efaa19bda93924b392c1338f4d4912e6a84e26</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0xbe161147559Dc29d7820066b919Af5aE7Ec30D39</t>
+          <t>0xc3e29e62e3936862E1dC2cb58034a1D40A298597</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>legal twin recycle remove sense heavy awesome vast hybrid tenant crouch beyond strong surge gather kit empty mixed clown canoe disorder wet suffer wasp</t>
+          <t>happy three occur shove shuffle finger close time work turn sample river away produce ability immune fire spawn fine reject arch chimney pave sword</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0x7f7d6ecfdafc3cd4c4278d701be0d08aed73b4981bd74931c4b010c3f7f3362f</t>
+          <t>0x68fc2263638c76adcaef12fd9d5afc5d610757400b8d573a155b5a70b0502866</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0xfc961c7AA1aa13829e98587CBF618bb63d60A24a</t>
+          <t>0x25093dbd0933873360F1Da1a260301Ad9Ba997fE</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>chapter chronic satisfy cancel rabbit ticket school income open decade civil tortoise april stuff orange gun cattle bunker render poet claw future lend hundred</t>
+          <t>wing unknown wedding angle foil sword spring reveal produce often fiber mutual fitness chuckle agent victory sudden install wealth interest limb exhaust fantasy height</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0x26650efd109b03c37033949b2710a672c0afaf26f33f2443ced85392a0bd1ffb</t>
+          <t>0xfbbdbfe38465a7b8b4cdc3abb33556c9157e51013f9dd88eafe0bad81c9ed4c3</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0x7616F3f90fEE660f36A3A1A30791bBe6EbC306A2</t>
+          <t>0xd9530D4F98FCF71Bfda2798eAf1dF5662E8E9764</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mansion subway field bird vague present fitness bird hurt staff sound ask novel taste copy gain athlete harvest decade illness birth faculty note nothing</t>
+          <t>bridge love giraffe twist fabric thank talent expand exchange surround trust peace goose choice penalty spike essay credit match couple monitor frozen table double</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0x875b05578b4f0b5415f8b46fda833f06a971bc4c02f60e2d2ce238916aa365ac</t>
+          <t>0x1bd08d88f5c517bfb75a814ebb53a6d0e6485068a68e4d2662231898f0bb773a</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x6ADFa840Bb22aA5b7DC53b6C8a877E68e13A9AE1</t>
+          <t>0x005b09cc44854B64BD6a0ec81127c1C77A9c0c7E</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dose garden fish balcony charge engine arctic sibling carpet paper learn news goose ripple arena rubber excess clap debris stove suspect warm shield ten</t>
+          <t>blanket animal mail around coyote camera will analyst exit negative hen room across stove gym private length spy other garage tenant cheese addict kiwi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0x418bf55e88e26894c2ce3d22d3fdfb4a96497482dde64e8538e1eb5dadee716e</t>
+          <t>0x1741221886131a417ec8424ff27dacddf025ad5a0559801a6a742fbdf04e40d3</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x8c01cDBe79E0841f7f07fe5Ad225270D8Bb7F9eb</t>
+          <t>0x6994e2582Fa60aBdA1E60c116e5c8752aa1329a6</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>green pupil index follow ten category robot disease fuel region trick essay wet fantasy business duck hard solar group dog crazy magic motor kidney</t>
+          <t>nephew advice salmon keen moment legal bubble trouble brush alert sport private purpose estate open dog cheese mix always accuse spirit strong trouble music</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0x6655bdcb2d5dee486ec9f85df693a1a69f98a607c21e6939cd9ba0432d0ba41b</t>
+          <t>0x944082f9bcd8eefec757481d20c74ad59ae69ae6ca042731c01e00dd21ae7a44</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0x6423453F8B66C615cA531E8E9C2bb6C47856264B</t>
+          <t>0xE666387c5Bb8A1740C4CC7B82B1C7F206813366A</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>aware crush permit broccoli night recall sort donkey stage raise tackle captain clarify awake kick trigger security become roof puppy predict feel recycle swallow</t>
+          <t>digital volume left garden cat sunny husband detail snack position broccoli sleep castle boat domain wide glimpse kiwi knock unit system mother abuse quick</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0x1046a28c8e395966f3e209d436277411129e205e8f44c2c27eeed70a9aa9acfe</t>
+          <t>0x3dfeb9fcafd23db2dbf9e2cd150c71e5923831903fd5632f6def76ddcd20404d</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0xA0fFD747f78155D550fDFf4fa858F73f09cE25E2</t>
+          <t>0xDA8E5559EFA933377fda77B7e4FCAb633E7C68e0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>stove cloud doll dinosaur release power protect clog dynamic such special neither strategy alcohol delay cycle camera disease kite include drastic reunion tragic man</t>
+          <t>build number mechanic end first save language blouse dance badge laugh elephant candy wheat pledge wrong end dentist emerge gas what public scheme jazz</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0xd6a57d029f3b5352ab295c44db0f43ca1d6c0c0e79b620a7e1ecb9342570b9bc</t>
+          <t>0x1dd2ee28a4c5777f9f38c137422df623e215f3e9a7f549875122b00f9d5a302b</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0xD534cacf3f9D8566DF60266207794BFb87Bf8389</t>
+          <t>0x432E04ce5420a23F946A67a5ab7336534Cff34E1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>build satoshi caution script scrub spoil civil summer slice kitten hire ethics park capital unique cousin disease swap enact thrive hello lunar chair process</t>
+          <t>way party cram raise empty deny song apple vote repair waste shock start boost swarm tunnel stove auto seven real acid ostrich toast youth</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0x1dd7ec92e0dc1da48a66c9cb6f69b026da04443b618b3f1b6925f096ad0a0975</t>
+          <t>0xf81410c8d894927573c855f5f6d3dee32d4a3376df54d6a1f312d9701f39f8c7</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0x4874B78072C6247d1709a3E12792004217A408Df</t>
+          <t>0xc6A46BdF843e70814B1C2011A66676F516e6C8bB</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>laugh zero sustain moment vital shop west spatial finger valve option charge tattoo laundry egg sorry south tribe across dove ball come image marine</t>
+          <t>health cabbage arena share tomato section sorry civil demise minor endless stem elite easily bus input message admit tobacco divorce brave burst moment traffic</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0x7d9ff76bc77f518d7e5e8456fe226e934de4fb51b67bd03d080920e11e5c1c54</t>
+          <t>0x6a23f42de29e418573d94c3a51a526eaa4808b07bba58be0778ca001b43da3bf</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0x198BD440b0DB805E007c7819562A189E2e147a04</t>
+          <t>0xc8E69bAe350A48723069871219890fFAF2e7912e</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>drum quarter gorilla vapor shop clump spare guide typical total family fantasy spoon start cabbage dynamic garden dance physical mosquito dry soccer robust vibrant</t>
+          <t>bread raven street harsh unusual imitate cry bonus foster below exhibit anger reform kiwi behave auction coast carpet flower struggle drive innocent blast shine</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0x4395ed92f8bc6a58b41b3cebfcb94a298d29a947ea265fa6ea8fc8043b9baed7</t>
+          <t>0x1b764f5bb4aee4e2cd48cb5c02993e045b44f6c518772cc459666ba434e905de</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0x129E56F1F32e90fc720a010457eb58BA823413f5</t>
+          <t>0xDe2e792113B782B9f16bbd525BCA629D0CDE5Ae9</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>awesome giraffe travel carpet veteran barrel stage prefer grief bunker gauge bridge erase news snake access swift pilot dentist peace lizard tissue grid way</t>
+          <t>wisdom morning margin link client six frequent december famous hope avoid glad gather drive divide busy man surprise history stage limit practice spell holiday</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0x108c479e116f3225b50d4e6683cd820de4c72a73480adbd49cea50e82dc5999f</t>
+          <t>0xfc51fe1fc102ad939729c552adac40314606868ff8f986db4db0ea181f52f44b</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x7684D26A7DaE990d35D19bdfC4B6859b0fD31c58</t>
+          <t>0x935D2AaC25a1ce2BA5e94CBd5E4e3900AC7a70aa</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>town twenty pulse badge vast bright treat lawn song quantum trouble require salad sword extra increase casual deal enforce left skin oak illegal viable</t>
+          <t>lift fame nut ripple force spell punch stool thing olive badge swap fine clarify rapid photo case robust end salon can chief reject cupboard</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0xe65d66b608bf1a3839f3f0cf35eba45b8be5b894439523a70528bf9ca92f9c47</t>
+          <t>0x816a4e5edd25b1a26b76b3e0b34445eda56c53ec7d1d233769265f420e4fad39</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0x859Ea3bcc9397697a3135b764F6ce009A7583798</t>
+          <t>0xd618dBc2d65164918Ab69B7dB32CCC73751013e9</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>apple mechanic insane behind multiply impulse heavy motion acoustic prepare reject adapt clay fox juice early gaze virtual hat arrow mad fix gospel yard</t>
+          <t>kit portion stuff breeze pig symptom ripple labor work excuse wide cream dress mask list only legal human absent sure remember scale similar weather</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0x0ab145d38a4916e45a9c8202153ed38182a2b89e322960be8da606585ab01937</t>
+          <t>0x7af50b5e0dca49b92e93e2fd89e3ea99742b10e09cd87f6dd802ed0b5b80323f</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0x2c361EfE61aa0CD099fbcFef9fC2C70D24587177</t>
+          <t>0xE08FE1D8c6B86eC919e3434517229E66f3D8fe67</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>happy evidence eager spell such jacket flag general mistake example since online clog sell bonus harbor south stick immune finger melt ripple boring air</t>
+          <t>flavor inherit inside diamond minimum route aspect brief hobby stick wonder because pond scare milk grow select syrup already truth gun wet there glide</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0x68e9b913e89d86ee160b068de9cf24cd72b986c65b48d03ab5c6ab78ab748678</t>
+          <t>0x58ae79d49e98d1790358df6c5ab7f409ea7d80a32338c35b941cf4e67ff3381b</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0xD25aCfFaCdFe9EDd66388c28B88071F492034092</t>
+          <t>0x8a0d97e958BD0eeF2272212aD37bFB72bEC29BA8</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>rubber enable oxygen hand frown patch raccoon raw amazing you interest very spare wash demand exercise mystery acquire deal core excuse repeat lecture mountain</t>
+          <t>oppose orbit edge uncle wild spice lecture device together butter imitate pride source emotion hover neither correct matrix never sell jungle flip flock render</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0xbcc92a793465d941ac159407dfe5d6f97d07eece8a7a926044e09824f16d5fc4</t>
+          <t>0x9b937d19764fb1a31fc1e5e3a3e9c5d54d00919b9ca13091265461b790b21655</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0x78b9f7d5eFD3287BCBD78187eA66B47D2bF47815</t>
+          <t>0x67CDE0A2d329b63F3B6db1e8646B6436afC472D6</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>favorite sword rhythm income jungle absurd word exile leaf company blossom eager concert come culture forum runway forest receive orient print nest vanish symbol</t>
+          <t>series jelly increase harbor social teach noble atom carry mother gun bubble oxygen short long leisure antique crop pink warm palace lawn order season</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0x541b8ae3394790023f5a7d7ea5d0602272ea5c0d62ddbd6b66ce4e4aad293c56</t>
+          <t>0xc40ef9cab48cdfbd25687222f2059f8ea9e58da0f3fd09e67e947b99f2fc270e</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0x20626fC7d03C951Ac0242823176bB4D9F4537C2D</t>
+          <t>0x4DFC6163D47989572125A77d33F58Aa6356952f7</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>plate concert bounce only ill forum palm plastic ketchup verb profit prison pulp faculty menu grant noble shrug eagle autumn atom wagon artwork bundle</t>
+          <t>bounce benefit normal history recall filter base wing what raven chalk daring found call file hazard street horn dry humble patch ceiling reduce solution</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0xa625d469cd870eb767d53079fe52af558ad6a362cb2d95b8e91407d0e5ec8348</t>
+          <t>0x1a62a658b61b36acc4bfddf9d64c979bc5c240d58b4fd6edb10eb77a0c49ed06</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0xEb4B6A30C03fDA55Ae97f1F8A8E4f8edcb477089</t>
+          <t>0x6b807bcC0216C0b69D39cA50A9b5323F17e1b65f</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>first author license dismiss predict art else great state village noise flash property ostrich law false fruit huge movie room depend spare jewel eight</t>
+          <t>word design patrol state cover host equip breeze sword vacant welcome either youth vendor wheat enrich retreat alcohol metal unfold plug catalog tell cement</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0x5761ee049faa9a19920b31d4de82572c3ac739df7a925dcdd643ddf3afa0ddfa</t>
+          <t>0xfd677a84ea6318dc1308dcdc5e0fe5238ff7e47e7a58b800c230769a6c47f7b1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0x3548B9DfF7565cF121938cD1835D93c8eecAE0C8</t>
+          <t>0x28d02231DF467ED7f0497d27BD1F579faE6AE593</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>wave diagram file fame shoe purse visa because foot cliff correct sick urge inhale wrong clog remind spell wear royal reopen axis little barely</t>
+          <t>moral bright fold argue reduce panel denial target session jaguar goat outdoor normal demise west leisure drip burden electric idea maximum athlete hen trust</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0xf7e79d58a93c675d3d289e5ae55cc263eef6e77fa95cb5da27e1de5b6621e0a0</t>
+          <t>0x8fa3816a05cb413f0e9eefc44ee5904e996274be5bfd4323d11db838961c5acf</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0xb1Ca1efce1e996818Affc2cB4022e3C4d562A2cB</t>
+          <t>0xBA394Be53B1386E2f7cc716a346dF33B93EBA5F7</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>pizza exhaust primary kid empty face people resist wrap detail bleak trigger convince draft multiply plunge frequent air garden jacket attract focus ring knife</t>
+          <t>theme slush faith soccer prize unfair crumble approve bounce glare dash moon orchard system crisp similar adapt smile fossil village armed patch december chase</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0xa5a9eeaabd2492a328b5bbfe07885e7442f883e45d375ca0ad7ebb80ecb46e83</t>
+          <t>0xe019894866eab5da0d30561a6c58dec7c9c1b98cee470319956ffa00bd418e29</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0x2c5a461DDCee5Db3b161B50fec7bDc34939b94B2</t>
+          <t>0xD44934479A562De18dD737fCe5A8e7B626BB5c0b</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>nuclear pioneer farm video person green canyon beach kid purchase path theme town gift danger toward witness velvet notable slogan awkward pink clinic phone</t>
+          <t>trouble object crunch affair despair fantasy stock twin family camp hurry educate model save bulk copy symptom lounge cannon stove student there clog suggest</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0x9754a54cf9ea34cc88709b7a55c683f00e64c38ddf30fcbe425a65f10d4a0acd</t>
+          <t>0xe91300d38223c0a635875b528419bea348e97f878180dc908885eb5d77c0cae6</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0xb5f291A930020A03C2DF6825843016626f03b2A0</t>
+          <t>0x546a7cA2593b9498C408223B681D3b62Ee0e5500</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>aerobic glide imitate opinion ticket broccoli erase butter soccer modify pulse vocal rug spring marble party vanish snack syrup burst lab treat frost thumb</t>
+          <t>earth hobby people clinic love car shift ticket fluid script armed result feed cruel follow south inhale enlist relax okay glare decorate master silk</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0x042c61c5cdbe1a38d318facdd1d6b67aabd1a661ed04f159a3728f67c1cf975f</t>
+          <t>0x456d8a8b15984644b1770d59b8342f5be54a6916ae8173a95ad44cf62c72222e</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0xDA0bed69F7A0C92C3e6e4405C6BA8e90c854075B</t>
+          <t>0x285Bbab208A099D55FFae7A0Fc3430a5BFEc7DF1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>wonder toy blue smoke omit cross pigeon provide wedding plastic finish plunge aisle advice cake indicate drastic dumb second bread urban girl harvest bag</t>
+          <t>tortoise decorate inspire outdoor surround tuna occur island unusual kick have worry invite around concert green correct gossip scatter month health group inherit barely</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0xfd1ccc616669a668292d67f8f4c15c53705a0808139742487f098dbef4c49a58</t>
+          <t>0xe58721d54e9da9d4e633b3ee4f45a6fee760184bab32308c9f01c7b6a2cddcf0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0x631E716e2efD51C79e766eaE9D8E24E688140964</t>
+          <t>0xF59BD325e1F217480273B6726Ee71d427D5AE1b6</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>erosion torch wise guide innocent lecture render road charge business sugar crouch prepare abandon fresh rose box wife candy chapter lizard mobile broom caught</t>
+          <t>pen drip resemble frost laptop jaguar gorilla before fever already mad kiwi spray tooth useful inspire carpet day dawn access calm vicious chronic all</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0x4cbcabf1b3c748fe2d85d72683e3631a1a9e001735e01a9f5c8513382d1cc731</t>
+          <t>0xa26866dd2eb7d0ee5928a15560e616bdbd2fc9bbfbaa22c700df80a209e70a18</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0xcAF57d63c54380C561aF8055d8E8ecC50466E74B</t>
+          <t>0x19354152A0960889D5479866da951576A7e47D53</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>exhaust jar direct finish mango oblige awful sick leave sunny hundred saddle execute defy fire pelican denial seek nasty derive version they runway spot</t>
+          <t>fashion social prefer special wash tiny chronic science pond drum hip extend permit pink seven begin cruel shrimp custom bicycle until task garlic shoot</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0x4f6ee8fa2b887330442e3e7efb2dbcdee4f27355cd123a78624c9dbf2dc12f5e</t>
+          <t>0x5359bea7687f77c4ca1e07a7c871afa87a334a3128a23498e4da0afee3bc17f6</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0x7690301a512A361fb179D6fBADec4D55D877D7b6</t>
+          <t>0xB579e28186BDc273bcb4bAd9F39731711c1c7721</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>side oppose project toe cup matrix liar balance puzzle raven water witness immense help chapter seek fun require vast sea sibling bitter wool inspire</t>
+          <t>lecture captain harvest clock welcome drop runway latin illegal piano gym delay planet cricket vivid envelope assist multiply cabbage verb love candy pulse leisure</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0xc7f372b071c35b1260308daef64fdf7e5718d6099e185e16e3c6e0fc7a2dbf53</t>
+          <t>0x7f0445a595bf9486ef5beb711481a01cfa5e66fd4a5e0dd22c7ef9484642ab63</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0x34766D3e33f0A1B0e86b41a93ff9F8376bDA9d75</t>
+          <t>0x66020b6225c34371df797beA4830dB519F988E60</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>artist category mesh awesome mechanic wheel assault about lizard inhale quiz bag ahead only caution family cabbage usage donor typical useless volume brief vital</t>
+          <t>burden aware puppy prevent manage come goddess hole paddle protect sugar scrap sand pluck extend naive field near dish civil dry various olympic together</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0x0d04862f0848a3f403600382ce76bf88c05336092a941fbdf10575ff01eb86ff</t>
+          <t>0x1e820ab855286e5c190b659ed5976360bbf34d543c9555f270fc94c43be32697</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0x490088f6D81F20B9772C041067C48D9cd5B0FD19</t>
+          <t>0x040826bC779757B090c06a751913e352324E9A51</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>gravity boil suggest shed hollow grant ripple glass cousin thought rail patient vast organ use fiscal leg olympic crime enforce spatial save system chase</t>
+          <t>quick devote seek help cushion gaze seven time chat move lunar eyebrow accuse walk live range vicious debate purchase danger awesome elder joke roast</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0x66032363e2a6cecb6e9317317c1ec3d08f1b38fbeabc7f5348ce251d097fb731</t>
+          <t>0xafa79b0c358366c1712f1226d21a1428a01bed20ad8ef3870ab89bb1088e9e15</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0x2616bf0f4218666dC10339c9989D0784E1beFD1F</t>
+          <t>0x536D9DC6B060376cAF77Bfe3Cb833483c93DbA39</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>sort find mistake power inject dash notice dust upset friend legal narrow blanket lyrics elbow lobster choose tragic sweet cat wild unfair wonder emotion</t>
+          <t>fury strategy uncle badge exile jazz clutch face upgrade bacon aunt measure play odor ladder lift giggle recall journey swift wave embark snow slot</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0xcf8ad637d4a7406f65ba22ef2b9dfdc981750ad1cc19285cdf6e91efb1da3f42</t>
+          <t>0x5e7adbb208b4faeecb228ceea2283d44fa65325f1c0b61f66de1edef7e90b366</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0x35bb95A7DFb5A93f213e7F8749C4344491FDF024</t>
+          <t>0x971Bb7174A9E2DdCb3604C8a7e6A745d0B7f56c6</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>cruel nothing wisdom ceiling dynamic cloud chronic win phone flat despair favorite elite know bike climb evil holiday region flower prize pistol double clog</t>
+          <t>clap love crunch pyramid cave blue stumble dial meadow spend detect sunset utility lunar liar cactus that diamond broken system defy trap armed interest</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0x3492dbf112744c57ca1fdaa38b10f02a0480f7c589584ded9ad22ccab54ad069</t>
+          <t>0x29d08cd3d7824c30b5e9e889ba28f1eccf050a203100dfe7a4726e639bce82f3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0x631a7241E680016Fa99530a87ad62BF2D37d5C4A</t>
+          <t>0x838946Cb4f15C7a82e3DE2B1b8e9c06f635C7C71</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>assault swamp defense jeans chuckle few tattoo hire hello visit actress wish other spoon resist repair turn electric siren craft oak grow stick since</t>
+          <t>junk similar letter carpet ability live junk shallow rely enemy sail draw energy meadow nest hybrid glance unfold cycle fun census ride pelican labor</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0x0d9b64e5bbd288ab3793606ade980b7e49d1a52dddb4eac8ef2599097cce356e</t>
+          <t>0x79591e02116003055e5628b5693ef8a134a11365238062bda4db2f025572e893</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0x951c6ADdb114Bb69d081E36CB82a720E45733c30</t>
+          <t>0x063E4b0e40c7D4D1c93576414B742328507e3F3f</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>blue sing upon roast wink yard cycle worth helmet behind castle hamster inhale hotel alien vague maze captain mosquito reduce derive source emerge prosper</t>
+          <t>crime device come huge ceiling lizard saddle put tortoise daughter verify wrist grab spare vessel merit trigger release rural grab tissue approve this joy</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0x18592bbbdd8fbdfd8db7ef6ae2908e34573adc419785898446405a03b7a0122d</t>
+          <t>0x338794b837524f05af7576e586fbcaff3655a0fcc45ce896a6f632ae2c15b833</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0x380E57152fbCCf0cfF7FcFB942d74dd6057BCa1C</t>
+          <t>0x27C7895ff3fcD4E35830519a25E083360A6Bd19e</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>direct fury unhappy call cost settle deer exile have siren snack blast genius grant oyster shove elbow motor again boat key level embrace sheriff</t>
+          <t>toy bird exchange slender wire flock budget omit puzzle adult crash elder story giraffe square repeat lend surprise long lion lift reduce rhythm farm</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0x3e8bcfb510330b88ce527d69b92f340bb60ecb679e3847320c128c67a1015226</t>
+          <t>0xe662d13ae5afc2b28764d3aee078c9a3ad68c474ddb57ffb4e0f411817682e32</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0xa8A2100467274aa0A20DA5438E28B4bA42B24AE8</t>
+          <t>0x3116B53E781706C203126fFC64ba7ea15d646ed5</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>hurdle abuse warm letter enrich exhibit view spirit under same feed tube coral club guide dismiss extend mystery install suffer attitude alert nasty economy</t>
+          <t>trumpet vendor hope viable kick celery wine oxygen federal sport industry kidney kiss play creek humble result essay grit skill swap chalk sugar human</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0x6f8027dcc044b09f3cfe90ecd7dd52f503025859e1fa50f24dd5ec50ea0c64ca</t>
+          <t>0xe99e45b5f9a7a24a3ee4f2547a55ccbd37ad4c8ccb77b7c9a59ae53db44bf633</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0x904615f7096E4BDeF5CA14Af2860e3be7434A100</t>
+          <t>0x21EB34cD633Abf957b5A43D6d8F32DB061a7F18A</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>actress occur provide outdoor hover option seminar blur stem sing blade rude tuna duty wonder obscure chicken organ frown track genuine urge explain style</t>
+          <t>earth situate member seek cluster square such vintage blush liquid nothing obey possible evidence used gadget fade visit brass twenty champion labor pumpkin click</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0x02d31ab3ce96e73770e0c3d559285c5e7ea6893f44c227b38d76734615ded426</t>
+          <t>0x4579362b6182c7a6f61fa118904a5b4bfa889bbbf2f551de986cf59260f8ab69</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0x6C9723CbBdeCD0a59CD23904207453f562294a85</t>
+          <t>0x6b7E9D20c444C4108B1556Ec307B98B32BAeF3aB</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>stamp today stage improve novel surface chronic slide people way weekend silent vintage own artist gold room guard little often assume cactus junior inform</t>
+          <t>cream one fee ladder capable earth weird pulse ensure frame venture usual blush genre mimic tiny vehicle oblige winter skirt shine kidney profit kiwi</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0xd47c6b50b90971b44a1e5ca2df03e4643f433c034322bbecea0a4cd0de401e4b</t>
+          <t>0x32f355523e321e8afe4d6c4b4b93c9781188c2233713f1f307f0655c5ef4eaf3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0x908e86c399CedB255C9ec55Bb261C7F83E3bb9d0</t>
+          <t>0xa6cFC9D7845493Ff34a65e1147FF46a73b216C71</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>popular afford adapt risk cream question doctor barrel sense stairs marriage you skull sniff snow evil alcohol supply basket danger hip baby hello trade</t>
+          <t>brass flee input badge primary crouch pelican forward grow trip wash bus table service gift run wait essence insane curious hundred dinner oak mango</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0xa8208c0c5d332f5f101096c3da8a217f9cad9af3626f061b384c9bb6be221ab7</t>
+          <t>0x1b2b19d288baaa686892de671d1bdd8f7dcf885875eaf669a9d39af6f27ca5f4</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0x6Bcb0cddF0786393c68801d043F2E821df6381cD</t>
+          <t>0xa5217b9fD473A9F6d3372fBF2A78cC0665Bab066</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>elegant toy light leg bleak level wrestle clay first govern what announce illness grid quarter horse meat museum knock need bomb clay town bargain</t>
+          <t>roof sample wood hole error cactus boring erase picture canoe short tiger analyst jaguar cargo swarm crunch federal skin relief green verify slogan review</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0x479cce063fa179017f9151576ca3e704a712ccebdb6e8a1235ef49e192547990</t>
+          <t>0xbbb7e3f4b654cc40067a63a444331b70f084ee48aedb34ea8f2a5aa665e572fd</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0xeC8A7Cc1437E2870EB4A6524d5aD63624Df60a76</t>
+          <t>0x8C005EE5742dE603a4199D85352B332d473C0A0B</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>bullet build achieve toss yellow track believe poem radio logic book display syrup spring climb addict organ kick arrange object argue various pig anxiety</t>
+          <t>canoe leisure window leisure payment believe load armor notable vague museum fold lens pool faculty genre curtain boat field film match humble dynamic pitch</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0x1e23b80772dff1cd052d38b0d070661fcdcba64ac01a9c6f44314c00b9e32920</t>
+          <t>0x218ff7edbfda1a2960b85f969e1646ad480350146b0836231957ab288cddd135</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0x06D5d5De1f6036FC26D68EBA1D69bC85f0D3d7dd</t>
+          <t>0x65f01657374104d685023eb54dB6D46E7b9E0634</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>lecture crisp craft sport silent drip gossip machine hobby scissors hope escape magnet couple team already comic pill differ rose knee point club shift</t>
+          <t>orbit antenna eye picture cave real dad abandon ceiling clog news noise crunch burden clog cat outside erosion melt cactus twin warfare cute stadium</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0x7f0674c8695c8686593c2c6c5821b5a6885e6277a8392e5498f75e07b94e8b0e</t>
+          <t>0x9be13944d2224d65cdb80024e57254cae34e3d0ae11e9d89962a900eb7ee0dae</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0xE8B9b9e1E5DE05Ca8b722a5529F05F895304a18F</t>
+          <t>0x72C27CC4D5e5845a7D6EfA0dA69a95ED405665CD</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>confirm raven hint double moral involve rural unusual spell drill sing peanut extend slogan rice such baby figure about mistake squirrel north industry champion</t>
+          <t>food milk lemon spoon arch pipe desert eagle file must faith gas swallow lunch scene give hidden grass drift pen possible veteran flame history</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0x2ef64daf20d8faec6f6772d1285f2550f50f97ee4ec3110ac001c6fd3b2c9cc9</t>
+          <t>0x5ad191ff6940b14a8eea2856324148300db10a7023136b6cbd0b513a89e65613</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0xCAAAdd5ac22b4FEF5B68d02485FDA7232c1A4b11</t>
+          <t>0x798d89875791d1209D4A84c15819Ab94fCE0D9f1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>submit imitate empty rifle olive embrace hurry pudding great hard enough only okay industry mother device game mask select prosper chief save series can</t>
+          <t>host sleep belt possible multiply cook buzz wing dream shoulder hole split play purse view marble wall fit motor recall copy soccer purse rain</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0xd80e2d24dcd9a2911bed69662d252bcd899ee66409e55f310f0d56427d7fb101</t>
+          <t>0x6e196453d449165f47e7dd4298ddb2e91a655d3cfc3df6aafa41d9b3019baba5</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0x644f35b55Bcc7B004BeFC89332B518fb8D1570A6</t>
+          <t>0xbe05a39cA3AF49Efd585220e3265497F9060C871</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>reopen keep airport million traffic feel output render alert ripple volume rubber slice vacant brown youth zone security large into inherit outdoor various orient</t>
+          <t>differ oil napkin chase garment either rifle honey anger worry vocal kiwi always deposit page moon attack arrive wise myth wire tunnel purity winter</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0xb66f3816465e6ca9a75db006374bd75e6cb7e0c747fbffd859f4bae73d3a7c64</t>
+          <t>0x3dd33a4b9355fe8e2e6b6908bfbbd53db0787627bc7c0e6193f1c94fc3d52b97</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0x61c4Bbc6eD1230Be0aAb3445A4455619Ebe53433</t>
+          <t>0x193859cCAdC296EF4540892AA0E3eBFB4B771a85</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>mixture ostrich doll jewel moment onion connect glide crystal junior divert direct notable uncle genuine birth globe mass mesh joke kid aerobic slam fury</t>
+          <t>nation sunset also dish rigid alert draft cargo thrive drastic course retire flock unlock seven calm address flock main doll million dilemma merry split</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0x8e539d02bbf8ef358bcb18354f24ff1f4969d91850b56351122f3c27a40872c2</t>
+          <t>0x935b301d1f9b9e0c507915e12848c55bf595dc312904036b2a192058ca7c62ee</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0xe205Aa2EBd2F03e5e8B26f22509Ac84e65B39eB1</t>
+          <t>0x0098DEbe961BEa768b545A4957A088541C6bB2a6</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>cradle crystal claw negative spy post artwork snack battle planet hundred deposit dolphin drill genuine skill tomorrow smart network swim scrub cactus sea burst</t>
+          <t>liar dance half glory wage cruise split purity crash tattoo maze can satisfy suspect possible artwork maid refuse away second term carbon coast venture</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0x31e6a8a849fd3551434e681354bdbc9d840c85d85653e43992536dfc1c403078</t>
+          <t>0x80c6e9a1b1cf6269748d72327bca26107bf5b5aa206986168c41e13df644cb37</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0x14517F0cbEB632F677e3b1e6d4F5f4D9d68DC2Ad</t>
+          <t>0xc86CB1C53D98f609EcB52C43C980cE757C642251</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>deal cherry crowd element vast please pull primary cute merry phrase depart ghost lobster release cactus essay vibrant journey reunion term solve remove pattern</t>
+          <t>hour vintage monkey plastic pair around robust artwork awesome electric now isolate survey radar keen parade marriage maid fantasy assault cross dune adjust evolve</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0x3824ecd123df1b4ceb555536b1768f1d6619066d49004d3e6de1dc2df79ded7d</t>
+          <t>0x6e5e863cd309f0186ed0691088ee5cbb4dab615e6d008850c14c06c3408800e2</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0xA8773218080918986B8f01C1c846961738Ec19Dc</t>
+          <t>0x6733680859B0A9Ec27ea4cDcD525CC3dD28b53aE</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>mesh mule napkin lens letter brave usual radio nice clip boss upon bench miracle control joy category pistol voice stumble stage employ expect lazy</t>
+          <t>ocean black north capable oven calm clump situate chaos matrix what vibrant clump tank belt ivory peasant autumn horse expose buffalo brick blade post</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0x8bd22a4bc0180836bc0d8695656868f771511acbdbc42434afd5ebdd4291d413</t>
+          <t>0x98e2de5910f9dc410b164d265127e779b2c5bb453bb7a221f5b72851da3745c5</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0x0AF7Ea335FC7CCd67e45c00D3694E7F12054f164</t>
+          <t>0x675cACc9295f110b9989D885f9E122d2823bE6cC</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>fog differ response alpha segment shield route maze afford alpha ghost primary snack delay drive save when science skull detect matrix pony above vacuum</t>
+          <t>plug capable auction client forest ball fiscal urban piece order liberty jar index raise elite affair badge drastic share describe cluster hybrid shine draw</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0x5a47bade838c338b6f244c0460e186555cd073d0d5fefa381f2b1e38934fc027</t>
+          <t>0xa6c43c3b9565b223d5e77aa4738603bba72d6252002211684b149dc2c6e0317a</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0x4bdd299b4e9C063447989f3a282B0010cd6772d2</t>
+          <t>0xE57cfddDCFeB9199fd921035f001a728a2A517c9</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>atom fly neck panda spin again man online spawn tortoise outside inquiry beef boost exotic pull civil morning brain face jelly thunder age rack</t>
+          <t>nice empower ginger good marriage skin wealth hollow slogan decorate elevator assume exhibit chaos general glove awesome silver poem anxiety mushroom host champion ready</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0x0e4b3e4ecfbd1e0961b4d7d0bcb2763a61403354056a2991fc6ba8c77dc30135</t>
+          <t>0x95692188323885953e0b67cbe7211f86f4f84c98331d10991a9c05091cdc0985</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0x338091b91Cdfd62906C121B5C3523a45cbD59861</t>
+          <t>0xE2a62d41D0B87b4dd359AF9d8dd224b4D2fd91A3</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>fit mixture one heavy air fat flower midnight bronze almost combine quote bitter fantasy special special junk horn cost seven color turn soon gaze</t>
+          <t>razor easily regret knock explain morning bracket cover three winter dynamic increase dune forget bracket science math eternal off broccoli during prepare shrug upon</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0x57d1ca6ab53056a6d664631ca0d8b7d8016ca6343e87794db0c2e252dbd5b3d3</t>
+          <t>0xb2a8b2d2bde5091fc6b18ce11f8113395440b686b6078909b2650e344353f1d7</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0x66227d7a654E548CF9d8a85C7a9370c2d1Dc61d9</t>
+          <t>0x1Cbf6A1EF43ab4338f80B62fC103F63DbaD3acae</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>lake search panic water surround north noble crumble enforce fiction increase bonus desert frost pony voyage assume stuff board lion buyer select alcohol soda</t>
+          <t>pumpkin violin feel hair inhale chaos alarm truth draw holiday radar vast trouble february coin mushroom parade tongue jungle vintage october auction person omit</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0x7cb8427efbeda92ca569a64a2ab9ca8cb3babae9ffb00dfaf062c111f7868186</t>
+          <t>0xadbe895334273a4c81774e426d9ac2f8de90a88b5c8ea01c8de47a19901de8d4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0xb67651D1DBd19D582c86e890ee5f3e46BE713357</t>
+          <t>0x595CBC37918a5B3fe26aB0A838645C8329292F5D</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>lounge remove give puzzle finish eternal ordinary oval dry eight reward aunt salad lock daughter quarter episode apology december enroll cliff boil tilt asthma</t>
+          <t>dismiss moment adjust rebel hundred elegant across chicken cotton empty tiger bubble cycle vendor jar head soup awesome leg solar permit online dentist layer</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0x8456bd89d775709b2714ed43a8dee287abe506cdf57b4be14ce2a592ae323880</t>
+          <t>0x3f51dc0e5996f28f00913d30c927878ea36de45dd350cfe211fd673a3335cea3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0x24e72301790a1Ef4F86D314463eAd9eC099E9395</t>
+          <t>0x122eA55e9f1b12FA6C027ebd4a7517CD5E194Ff6</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>picture runway garden march engage almost duty rocket pattern very lunar away crash high gym material light task rare dry surge garden people whisper</t>
+          <t>possible axis lunar matter develop perfect adjust wash gauge leaf snow bright inflict biology success company private welcome artwork around wood smart circle rather</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0xa457ad7ec3e4a40d9125dba15e5e14083326d71a0447819bc2c821dda4bf68b7</t>
+          <t>0xa8821e1444a3c94600e7bb608fd7360e07362cf61174ab3f2834861fd3990a4d</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0x264be70539A0D5Bc8e33a2ba75C543aA77B520A2</t>
+          <t>0x1C020Db246093fE71662d4964A5D69b2EF886696</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>village empty music sauce eagle horse cube recipe dragon brand color notice always essence install bird laptop doctor pudding exit wire mercy curtain cliff</t>
+          <t>squeeze subject pumpkin vendor cube stereo elite major dish unhappy summer bounce note cook amount digital seat rail page silly model around ignore grass</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0xf4092647dfc450db8d5d9d420360b6cb70789a9d58b47d080ab4a7ffc3168d89</t>
+          <t>0xd39afeb6f91357ab1204333f3dab648d396a5f4201efc2561e7be458e8185c33</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0xD919D4Fc1689871dDe45214F2f6Ed0b78d9EF84B</t>
+          <t>0x1745dFe57CE2F2d600F08a46Fb5536D8Ba4Ace80</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>slush rose fit view oven sadness useful post order position series garage choice innocent guide various nominee hover truth subway expire rubber galaxy foam</t>
+          <t>proof afford solid obey squeeze hollow hungry raw jelly oppose glance small grab phrase bid evil will spawn lend never area squirrel miracle disorder</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0xcc57815f79f9dd7bfbfd459c350f102fb282e919e78c95edcfa76c15077997ba</t>
+          <t>0xac408f3acbfd38d9dbd59477d3718ae636554785826ffb3a15ffca80b5a76359</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0xBbb9fa6055495Ee70EF0560508e686de02e467ad</t>
+          <t>0xc66530ee26B300e25a7c913C066e3751Bdf2cEd7</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>shed album grab right fantasy only slow believe oil kiss battle bag issue culture nephew income bleak radio only gloom volume season purse mountain</t>
+          <t>sing merit speak chuckle output cute shoot chair frown ritual occur october wear just notice crime link visa interest buzz loud very melt mind</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0xc540bd955ce531363308a599cf584d08c76a6b25139417961a6c31bf5d846ba4</t>
+          <t>0xc95173431449d66d71a12e5d9752634c8f86f2e5b99c821e95d68fc843e5e2ac</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0x04664EDc9945Ba7Cd1527eA03FE0CDeBE292d8fC</t>
+          <t>0x6f738a76538E38Fa45018010bC5104C8B78bfe50</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>parent ball require found tank across rib snap page invest sweet visit need exchange diesel prize salt follow ghost skate hard rocket company portion</t>
+          <t>planet rapid chronic power cattle gospel spell suspect agent float pool end tourist dinner true gauge dune arm rough seminar cabbage click pool license</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0xa0223edc2e1dda04ae3e6a9eeebf6efa693c9d4f655abeab558665069376cba5</t>
+          <t>0xa5f63ca1d4a244c9b44ed604eb26a024ce5e7cba5304440176f161c1fa556a04</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0x8485c5972dd62C67E6cB7aA2468121eb6b587926</t>
+          <t>0x7199E2062E2E213361220aa76f33Caaa094729b5</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>transfer door cover swear typical service video father security release nephew concert scrap rib frequent math duty monitor peasant inflict onion parade base uncover</t>
+          <t>farm insect debate tray lunch salute poem arena flock offer indoor tiny nice core deer brown drink fitness leopard spread hurry fence until brass</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0xe7282cc66dcebf887cf29dc2d6a651175c1771d72c484491e288b9b9ad4004bf</t>
+          <t>0x532ea0e173d8537da9c05b59532dcc713956608e50e8430afe016986faaa3b88</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0xbBfCab1F637Ab79F7D8409dB8234303Bb1e99050</t>
+          <t>0xc3De864bB5feF791F2F49bD5F9576B2954161181</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>state click day coin seat neutral mean broom menu milk nation gown neutral talent virtual fork cattle hamster follow sniff pass mutual lift basket</t>
+          <t>item between cave almost system motor essence urge follow brown tragic switch broccoli march traffic odor brother one someone nurse buyer chase guess pond</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0xd4c554e016bc2529e270e68b31924d32994fbafd1adb244d156ae6ba0b246058</t>
+          <t>0x76c2b493036dcd20d3577b5aa3a39bee11c70fb9b4c91cf3573c4bc1f64d59dd</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0x413F15712EC3e4F7f673c67C38bcc13cC8d0aE0D</t>
+          <t>0x35979033e0484E2A15B457b98c8f58b465F78e5B</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>culture produce drink domain fame candy wish eagle lawsuit trash entire draw hole satoshi reason clarify patrol license visual banner filter sure cluster shadow</t>
+          <t>jazz brand switch ticket review jaguar beauty save burger culture plunge add hunt equal foam gauge valid pony pact ill sleep torch canoe chase</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0x3595750c20752642bf22287e3ced2e2136cb7eecc14fa13027d3892567b40b1e</t>
+          <t>0x77636370f0db88ee44edfe1ea6b29b8196f698168304f0d4fe7ab87cb3ca8861</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0xb55D436cc79351e8C332cA65d9684eA451C42DB8</t>
+          <t>0xBeC9bcA1e5aeE19bEA2F7adC2B3DDbC66829d90D</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>candy glad bicycle curtain runway stove scare mistake sound little miss marriage combine noise myself direct divide luggage release engage tone language drift just</t>
+          <t>canoe burden glad chat stable effort obey false amount retire claw bone stereo urge decorate view narrow equip increase bid visual finger skin club</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0x214c50579b1bd7ad70146fcfd052374422df2ba491f43ff09ad4a52e44f9d0b3</t>
+          <t>0x2183d18a136d3c8d65fa920816fca80cad59dece479f930985ca8b0f4eadf2a1</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0xcA7c73b11A69D6006416B178e64C879785799EfD</t>
+          <t>0x171fC369980D08dCE0D79e030F7f79d4C3c51fdb</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>grow hollow police cross chase fashion three farm execute jealous swift lake symbol escape foot broccoli regular leader profit govern crystal clarify mule daring</t>
+          <t>course body apology fashion figure suffer fiction memory scrub erase napkin frequent right volcano upper dumb quote genuine chicken point judge ill denial stable</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0x670d9e9e9a026aa6b842994f2ef36f3e5dc69a16b8e3b4cfd2af32835453e451</t>
+          <t>0x31431c29a9a561b1557457c1c98e4bae5b9deb7bc21fb00c289ed3a78ae1ce9e</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0x592c446422E68c3a6b9edEc157052eD4ca50B3D7</t>
+          <t>0x2AD626f145699F23B514A50c9228421695222cD8</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>cushion wild repair hard swim grocery squirrel penalty submit next gift ugly raccoon pretty print immune fine nature casual number wish change taxi invest</t>
+          <t>unfold bag joke tattoo pioneer auction foam later ten giant flush enable arrange peasant dune congress ahead latin ginger bag emotion tribe aim round</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0x367f62da349dbecdb4ed14d812a987760b05546ab38d56d26c8ecbbfc84c779b</t>
+          <t>0xed2231e16f2a521dd683eadeec356724a0c544510178052fad8808c48dd08155</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0x73A5fe708d21948e471073Ec13e09a548C0E9fb5</t>
+          <t>0x855E80C6DB91E7729301B8Cd689D532d9a320385</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>try expect jar hip essence whale mosquito evoke liquid swear split fetch whisper half dance pact south possible way remind usage couple pair valley</t>
+          <t>enact flush turtle museum coconut hospital patch asset similar sweet gas state method crash position oxygen gravity negative burst sorry teach main arena ivory</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0xe9ea09dd35f4d5f3640270825b7348aaafa8d0cdd4f5d03513e05aeef86267c7</t>
+          <t>0x496b3babc8d2cedbe8306dc8fb75806a68c264ea1cf266127c7b67bde90c82db</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0x7D958b2C251772414031CEe2E5985f3111273928</t>
+          <t>0x805eCD22e3Aa31cB508286BcA8450Ac73866d3EE</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>firm board country space doctor sunny peace garment celery modify impact vintage gravity local guide tell piece wire snack hen magnet enforce road feature</t>
+          <t>bar lady rifle chunk theme ketchup aunt cheap quiz silk mixed flame onion crawl neither list control dose announce bird trick asset caught lazy</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0x574314c4682405b2e872ff2511d5c77a16610699e6f6a47f873435985e946eba</t>
+          <t>0x126f92e6945e00f3c3d137aff91238ac29ac65650c132f6830250b4e861b491b</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0x39134fd1AdB73456c2238bdB5d5D71e7C274583E</t>
+          <t>0xf77d98F855E2cbEdABC0b390d078f588e6736ac4</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>bachelor impose long quit into just blush fitness gather spoon tube lizard once runway build unable ketchup chase company route mask believe gorilla panic</t>
+          <t>bread youth brief result slush jungle price say trust slam moral outside pig hello silly click flush burger cheese draw settle decorate fetch caught</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0x112e3e0f57e75cf2c622bf607a53a84169a97ac7776279e4d4ba5e488629592c</t>
+          <t>0x1b7fec6fdbecc4f22a9dffe9b9623ececa48d5b2295559c3d49ca13c46721551</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0xEe0c208A5d964716670A23c37b1514454c8a8C69</t>
+          <t>0x8DB1C9B9A5eC8Da3782C37340915ba05BDfE801E</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>august icon popular help poet pipe hammer wisdom transfer clown basic simple cake true chapter wonder weather marine cliff trouble material typical burden gap</t>
+          <t>enable expire cook betray few spirit disagree produce slush treat scene express diesel tide nest urge entry memory wise trophy tone laugh absent hello</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0x0f2e0aa0b58a734a9a27e2e725804c648205d2899fe8f8b100abf4888fd7c7a2</t>
+          <t>0x494a0cbe8ab559a40fb55dcc5cfb022863d9c3a5277b4bb15ff1f47e44fb002b</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0x7aB2Ef6183DE1fCE9EDD9e42E32f98a1f60dc156</t>
+          <t>0x290f63daA23b453090DDB30d96Ae5dD7445146B6</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>skill venture refuse situate option fabric peace turkey tiny isolate garlic pact tonight dumb hamster material robot asset pigeon museum now shell heavy recipe</t>
+          <t>meat quote fuel record lawsuit auto give frozen voice tomorrow verify law rifle risk also field lamp great like rice canyon save point way</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0xca7e4ad1e4d9baa2e87755e26ed17f4f5e4887da2c47bb21b692c8d9738ada9d</t>
+          <t>0x8a160177d9e7e21f189aedf57c87cabefb9b74c1d2af7cccc606dc921d7fa9d7</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0xfeaE37c02A46DCecbfca846DD4D68480288CC373</t>
+          <t>0x79e2D654e89ACe6023695F85839672D3D28fE28c</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>gate small flag life error illness basic vacuum imitate icon engage absent laundry toward mango casual sunny pelican hero slide clinic bicycle leave tube</t>
+          <t>stay own visual daughter ozone attack urban other glare tourist father retire motor aware lizard illness donkey century health brass senior chat hurt injury</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0x60598d60c0a4cce244c784716e09290057dbcc21c91dd97449ad65c2b22bdfbf</t>
+          <t>0xd4f3c3d39be9e81cfbd4e862dcbd4edbf90620a0b3894124ada88d9c3a4d9bf3</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0x8C994530Ff68A2C048c7A6DCFCAa9807157Fd345</t>
+          <t>0x79cFA4b7cf54e072Ba3148E6933F8399D2Ce3809</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>garlic switch phrase popular lava question exact dizzy vacuum inspire endorse wonder scrub exact flame blur monitor blue uphold moment search police smart honey</t>
+          <t>confirm law zoo trigger success wrist acquire vast glove trial pill layer walk adult alarm nothing host pool wire amount pupil increase sort beef</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0x5fdb868f5417dd5f139201f08ea9277e8c1c9c9610c38f030bbb477c214f7323</t>
+          <t>0x2eefbffff44d85fcc08f8d63bd06933f2f68078174b66e1503f0840adee573e0</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0x0261E9aab56b5E03AAFB55bfD557F5dae0b1813e</t>
+          <t>0x86beA94242b9771332cfCeebbA9357369Db9e37E</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>chapter car social river renew spawn gauge focus cup embark panther squirrel song change rail roof panic segment tackle faint salon merry carry december</t>
+          <t>impact ridge silk judge bicycle tackle minute vessel device electric stay concert issue assist oxygen situate spoon birth jungle frown reduce theme height country</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0x26644b37dd6b63a15822d135a90a7f69dcf24c6c3ddd9fb8677428fbe91748b9</t>
+          <t>0x71d733223c515fba2357983ca8ef5397576a1ba7964dd282d5e42ecb41c01aa9</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0x6eab265F84046Cc95E5197Aafe8669D8aFc55DFA</t>
+          <t>0xd6a9ed3f0f077EDC4D615C4d5AeDAE6994878547</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>maid innocent alter shrug walk burst scissors render stumble tooth tennis service topple into attitude domain reflect shell make bulb member alone pen cattle</t>
+          <t>bright castle seven year power denial imitate tooth material stone fossil truth goose time seven harvest luggage doctor census control purpose race ethics risk</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0x860e901de3af683db045b0d7bc9b7ce21e52eb83aa07b438ae1a0ef8ac0de899</t>
+          <t>0x1c047312ff7a9474dc5f2688fac96ff4e649c4b12b4b84c8089517bae760d36d</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0x5D5bC7c5480987F96509EF310D413AB28DBA5E96</t>
+          <t>0x6b6a1d2A7B5CeFc131605d7f46e55619606C5941</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>apology sick coil become notable portion net conduct tiger online real salt volcano allow quarter organ bag dignity hammer clinic series veteran cause canoe</t>
+          <t>skirt impact drop electric push crumble interest stove wealth winter welcome stage breeze dose guilt acid garage priority push twist chat trash panel ceiling</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0x0a78f8b509f96950a52976e1f35ecbdf5f5a0d6bdce31187c1a2159c41e64921</t>
+          <t>0xcaae390da3baea699d6eb5f83f83e56a11b88319e80f5f755ebaf5c26dcee7e1</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0x0693B255Ca58043DfEDf6A254C2729743988Ae75</t>
+          <t>0x4396D460E19Cc65C34749c827577074C53C2C15D</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>dinner ten cat mutual bubble absent tree mango badge stool push matter muffin leader between steak law cross state loud nest topic spare push</t>
+          <t>soup cable frozen denial federal illness scare remain skull roast stamp panic sing rack auction now emerge action stamp hold ancient soccer when rich</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>0x3e5bdc8f4911d40179fc39117acebac4a912fd056ea87de68353421949ca341d</t>
+          <t>0xcfe3fd769d3546e27015accad76351cfdc956103bcb948a05351b640899bbe8d</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0x0FfBe5C94c4c647BC96CCb863e9f1E8712ABE1BB</t>
+          <t>0xF3c69d99a2B73C3BE90e5e8CcAc5dD9a7cd04AF9</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>melody blanket poet table view risk social mechanic segment asset antique elevator suggest school shaft cattle seven bulk risk weapon blossom actress cruise purpose</t>
+          <t>target attract once retire donor element scan album flower squirrel summer name bag indoor idle region also elite useless warm elegant better inherit run</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>0x8a82ea9cee7f3f74f37c51c321b427a3fd8f81b13922c4a3c2e9fc2180058d2d</t>
+          <t>0xdde1da6a5bf4148f70082f599a7764c96118e61c2da4074903c07b94782b1cf5</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0xc904F6fC6DE2CE8a6F3621DCa50519b61fA7d00D</t>
+          <t>0x59a8656959390b0A3eeE54308A6F168aE5aa8ac0</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>market fall doll document peace wide evil warm foil similar shoot canal catch waste nuclear cram image differ total unaware mushroom wage concert play</t>
+          <t>hurry fold someone soup unveil upgrade summer isolate real exit invite sense recall when outside exact length swear lawn midnight private daring electric have</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>0x882a4502a03a1df5537fb95a791f1a108241ef65d1917147bb9776391dec4bad</t>
+          <t>0x6fab533c67fee7dd764bb4b2e9fdd861eb37f4676272801b71f8463ab26f11db</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0x9aee19d63A0755996CBb7048eaa8f97c9D91cb77</t>
+          <t>0x1D7384d04f0D61b171169717b5d200d2058dF077</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>escape crystal craft kit tiny setup manual when someone stamp tomorrow side pottery name minor tower focus emerge sand dream brush deer robust prize</t>
+          <t>topple circle direct panel jungle enroll human inherit panic pulp seek palm drip play fiction enemy letter message unveil castle balance before neglect apology</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>0x4d06a8c83d7e278921dfd1cf1a8f90e3fa8f25a34f315a2916fca141d272aed5</t>
+          <t>0xe52524fa4fc790965bb39e9fb5af0c4fa4334c95724f80917fb991c11a286500</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0x4c4FC0eC542E9CDE323B403716C3D761D2Af6C4B</t>
+          <t>0x521045e2b39e5F4f664a4F77059403853Ab1B397</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>salute income guitar clarify village silk orbit bar float easily museum letter improve yellow describe engine view tiny divide when uncover sunset asset tonight</t>
+          <t>regret swamp naive diesel satisfy wrist lucky female layer inhale memory used short daughter afford laugh bundle width afraid lounge random reason focus claim</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>0xbece519f14ff419126f8935928b246c04721fe0ee253f3fc4cfffd1ecbb3036f</t>
+          <t>0xb4bb664a9ecbf5fce12aa77e4e762bf7ec6c6f811bec1e5f5812422b1b661689</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0x25E8c907B2854C08b9B23b2f85744469c22964E1</t>
+          <t>0xF344d6533079a0620F26C9f971bE6ECB67b3BB09</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>biology viable prize swim increase spirit year rely various thought venture ahead correct loyal type cart mail habit loan hero joy jump cupboard fence</t>
+          <t>about pole museum frog mother photo senior problem creek scorpion mad move elbow will aerobic canoe biology ocean tobacco sketch amazing wedding strike mansion</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>0x167e6aad6df72ba43fbdabf19c1fc9029309093af118862d060c35a788f1cd72</t>
+          <t>0x0074f246ae99034770ed5b33382616c86473f641090c16731f8ce5107df1f5c4</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0x18905cA2A8F2DF542b6CE6D54d8aC5ad2Eb80669</t>
+          <t>0xF1A84EB706BEda5De8eAcd8782d4B1ea3931336F</t>
         </is>
       </c>
     </row>

--- a/wallet_info.xlsx
+++ b/wallet_info.xlsx
@@ -453,1700 +453,1700 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>citizen permit shove wall uncle neutral merit absent corn shell attitude throw claw garden armor better room alarm certain vital section vast surge october</t>
+          <t>license stumble tide educate seven slow furnace grit indoor unique able bridge</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0x2954671c7b5ec929e2e0053078ac3af0a2a0bf42f8acbbe0b896fa8c2be37694</t>
+          <t>7f9ff45f0304a1464ba6ac1e74758780194ecfac5b5a00c3d20b33d02163fb75</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0xee8E4643Df1032B9ACEA5C927474f5909501e706</t>
+          <t>0xc6B04FC75D52e57D0Ea89c432869F1C619a3953e</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>velvet adult potato salmon night book elbow story matter ahead until multiply weasel water review tribe okay giraffe magic learn hunt omit when oxygen</t>
+          <t>deputy future decide lake inside place danger ring inform second shoe satisfy</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0xf2007aa35f39583311ceb48940a7b8c8bf89efae274299ec46173f66f734fe8c</t>
+          <t>0ca2b9177f4e2817d5d12881723745d97bce8a352d5907ecd16567dca6bd8f2b</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0xE44fe4a22886F2eEE41FfBD3820C34a03d93B204</t>
+          <t>0xA65AC32cFDc2033365e03a7899C9ceFA954019ED</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>spray fresh boring shift lake minimum parade else lamp maid neither taxi radar forest tray struggle sister inhale enforce middle kind side puppy habit</t>
+          <t>rather become phone music guide seek orange curious oxygen artefact theme gate</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0xd2eb9867e2e7cb1a2802417cd0c250ef3b0ab679eebac98e7528c627a98feb83</t>
+          <t>424de3f64e0b0b6502cb050847bdaf0982eca46db82ddf989b6792eb95249934</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0x893497fe8904898E8BE2CD9da7EfaF4bc7441C60</t>
+          <t>0x9E4d2FF502De2aAB7d36fFc130C16D89b6ea8c64</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>absent silver mosquito shove park spike story toilet since embark joy thumb suffer pride scorpion gown steel avocado cloth memory junior uncover tunnel strategy</t>
+          <t>choose ostrich load kangaroo barely march marriage asset embody exact dune gather</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0x00b91a40638a05a3b5a71ec92909e270bd8b55304b29d521fcaf457793d97aa6</t>
+          <t>d5ac8efa592b2b0aae81b5776f7a05536beb547ac9cd595dff4a8576bf9abe40</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0xcb5BdbfE96AE1D2a649c16Ad14Bef4cC98c558A1</t>
+          <t>0x943220a76f82bA74Cd921161e1c777dc2fe0f71f</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mail snake clip region predict faith autumn sun couch front remind front cheese acid fiscal menu maze crush trip assume caution purchase blouse rally</t>
+          <t>cousin man husband bone blur into hollow other soft stairs hub tool</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0x8639a4ad5a4a9aa403eeca30ebaad72ea27203d5e4598986a3a306f24b5c460d</t>
+          <t>0b1408b157dc47a7b3f81846c097988cd9a9142cbea09ed82be86df982dc13b6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0x0AC82f800713B5d1fB8Ce523a8e9607540c58603</t>
+          <t>0x50c8AE99Ffaf6163F025F99b95F9E91Cc3F54f92</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>cool crisp era element spider top modify duck cake bacon leave pass cement nature syrup ice forward forward frozen mixed popular couple snake salt</t>
+          <t>subject stage spoil basic guess achieve blanket donate child rice gossip spot</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0x2fc6753123dd1bc9e3aa1e204229fbd0525326f72b815bcb7976c71a8262734d</t>
+          <t>cfb0b0923b29ded118504ad89578676f3cda4447124ce97a10862427eb893171</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0x0722A99Df23d4D50285D8A6997fE64b9Da62AAbe</t>
+          <t>0x2a08e907A1D54c0b4D3075369ea1EC471571F9d2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>benefit parent rookie over globe desert order orbit tone carry genre vibrant wrong town planet soap rebel today gadget document pole cargo action coyote</t>
+          <t>make thunder grape fun coyote damp weasel fetch derive plunge helmet improve</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0x153406ef4ef63477670cdfe4445d8479bfebcca97e6db33c697aa03a784540a1</t>
+          <t>7edbafb084970809adfa10d3fc7a39743efb10e3fb49add54fe14620c4744d5d</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0x14B4107A325488E050c9C497fC58c850BCCc8925</t>
+          <t>0xE448a700d732f483a24E896666Cf742bF028c2d5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>entire result scout finish shift wrap mix joy volume inner soul young tenant federal laundry crisp pride attitude cabbage multiply uphold scout smoke fortune</t>
+          <t>gold turn club drink invest bronze buddy clown tongue giraffe kind wood</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0x4b96fb052b8c5dfc2383c4f5ce8f3effadf0a8df699daa81d47ec8beed82b332</t>
+          <t>1df197d2d08f4802110a3c701687b05cad21f2dfe50ddce5ff0e2d6823f23bd9</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0x4c6449DE46996dCdcef89CB9D10Eb2B30c141d16</t>
+          <t>0x303375966F4a96c07e427a94Bd6B92C632E092C3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>add quality usual shoulder index kiss glance learn hire excite people battle easily dizzy morning embark movie orange stable staff six eagle right little</t>
+          <t>dial better special produce comfort amused token find exact assume squeeze ocean</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0x0335e7c0e3772cf598abf66c09da8b09a4588063fa4290f37b4f6a0c9c8a2e74</t>
+          <t>a7211490df25417f5f8b89e075eed9c8cd8bee7ec1aaebde5bf70db828b4d29b</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0x21F0Fd336ff79C09014Cf8448ebCFC09676270D9</t>
+          <t>0xa89B9347dC85f3D1259142B474e989C3Beff42E5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>average cricket stick learn response coast magnet various captain scout asthma struggle wine rigid salt dress goat reject edge owner column sorry settle tip</t>
+          <t>task raccoon city swamp wait exact window episode gather fever route sister</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0x0fc66f56bf6b7a59a17f8c223828386bafb973efaa1564169d194f12dd9ef11f</t>
+          <t>e4933711647d39cbcca79c9cc70e5c2bcee737b96bc4eb2ecee4a43e31fe574a</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0x7D2f3326Ea1385a668E26dCb80815B3AdEdA099f</t>
+          <t>0xFa949839b2AE4Fa11C024BCE9f678AAE638D6adb</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>avocado flat catalog trick replace spike benefit safe arrive eagle choose pass excess gossip early window jump cattle betray burst civil catalog sniff steak</t>
+          <t>term brush run wonder equal access label board wink rough clip helmet</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0x0feb108ff43b6da3854df00c88a0a15054e8c9d14fdb78e488558f629847f35e</t>
+          <t>1e57425415909b455a9e75f32e24f2941cf68532d7034f190b527d9cc582a333</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0xC088475DD7968Ac16dC42530367EAB6Ab9b79C63</t>
+          <t>0x9ac648a9011b39d15b83Cc69DE06D56C6EB95f2C</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>drum diet token foam angry science aunt venue trash nothing paddle misery ten tent always prison rescue game bring hire below say toast initial</t>
+          <t>tape vicious horror aspect trophy found depend race maple affair exercise cattle</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0x4387b78fad008f81c3d793e772da7b46ddefbe81e558b72be470b6014d7ff8c3</t>
+          <t>61fa07111e4e95643fb6a3dbf2c16957211a8b06b8f267efdba25b36d0ee3de3</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0xeAeb80Cb49c490cd070Fc0B02A14eAcD6Fc85dEf</t>
+          <t>0x5B8265346647C4c956AEf2a84D76b76b7a55Ad66</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>asset junk blanket discover auto mention notable track middle raccoon catalog unit flip moment oak turkey sustain smooth borrow jaguar snake beauty clever ghost</t>
+          <t>memory enable toss nation tunnel biology confirm atom can doll spy used</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0x0daf285d1f70f91625a7348c56088ff6d5911de5f755daf99c683b9cd2274aa3</t>
+          <t>aaf04d8df38f1ce031b15584f39ab7861a9bcc0a78ad41837a4f183df40e44a0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0x980A45cca06ACd8D13a37e511bfB10F8fd296cc1</t>
+          <t>0x6a24d6FA8b1AAD6F77dDB40959d4920DA79a30C9</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>shadow spy warm abuse escape tiger lock grief meadow just example crystal settle evil goat similar genuine because rally awful connect street emotion review</t>
+          <t>domain finish chase autumn target antenna renew child stumble borrow exotic tortoise</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0xc4da6bdc8094d1c3e0db3489af2d399aac469bd9064761427ac50852f3add235</t>
+          <t>4c25b5d6bdb94a2b719caea5c493cdd92787af530e5c93805dd03b15e994aebe</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0xd29a31299189856b79a1e3272004EB19247828FA</t>
+          <t>0x2f8Bf97A42C66854d54A87f3B898ccE3A9372B20</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>female name silly husband female soda isolate top clump matrix either whale burst drip critic grocery swim canvas owner dust lens satisfy follow road</t>
+          <t>cliff throw pencil asthma rack able firm cliff echo equip finger reason</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0x54f25b22b7f54f9c5da7272c51251c7cd1ec864cf336dbe43678a228037e96ad</t>
+          <t>d605b8f0b5807de88ec91a45205192390d063ef4431ae5c6c1e159efb4b74999</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0x9B871E7670CD86c2e6d75223eb0ac7bf600E0308</t>
+          <t>0x61592323Ce9AA7917b2E602E4f872209baaC30f2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>napkin kind sure around shaft tag almost piano mixture matrix soap return lecture neutral push traffic hockey despair noble always two caution arrow exclude</t>
+          <t>brick strong arrest genre hybrid door yard record lawsuit put exhaust notice</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0x92ef5368061c4fba41b5208e512736dc17f129ebaf366c67825683ceba49432a</t>
+          <t>fef6d44078f65502d017e66108162002516efc37b3a2e44ff65a369be3ce49f1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0x78F3012ae664Ea350c2Abf085921DC99B1d5e76F</t>
+          <t>0xFbe628b95253A38a41C806Edb36b6b511822ef28</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sail try someone such yard novel idea body donor hockey drill athlete mercy liberty tragic flight begin engine wall reflect double gun surge health</t>
+          <t>aware treat glue explain reform witness return snap kitchen twelve trash exist</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0xbe3d3f3c6c3fed2e1c18c7414d8d0b8718b501f9bac714494fdada141acff693</t>
+          <t>c414ac0d0fbb26ce54df45c411d1b6dacbc0cc41d340f117d0e2c105cba71077</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0x368f15c3593c042dF4b2C325241f617d4ea619d8</t>
+          <t>0x090e941662e5529d81Ae8CA11F3c839bA4E80876</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>daughter outer devote carbon erupt cricket suspect primary olympic stock dose endless issue hidden cream scene deer sing craft enter feel found foil park</t>
+          <t>among craft bridge draft coyote sort bunker inside grocery crime vast chapter</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0x37d3a8f31134ce66f6b5559a5ac10624d76ad6ccbe04395928c825b54cb8569d</t>
+          <t>fd1365d4aac71b9b9fbe20aeabed66e6abecd3375b6aab7c3605daa325bb7d50</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0xEAEE0221010Fc6c9F6cAd1fF1958b0c7F686B349</t>
+          <t>0x545ecDf8522d9BfFCa7B6450f6E7c2fC9434F687</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>glimpse seven host stool antique crush stumble gap coconut success print prison supreme fan jelly ramp tray zebra stairs copy pigeon often civil because</t>
+          <t>fire sorry demise busy stone tape among toast picture estate saddle blast</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0x633895b86b309e6a35eafa2cfb0aab558d9ea59df58be7bff351180a4b334a60</t>
+          <t>30e803893b7ec0a2beb8602b7e99d62312bad9cf1fd022df16a5d66542efc34c</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0xB2ED0B3297DbAE28E872AC833c7DB0778f7ebc45</t>
+          <t>0xd79cAcB516bbBc9e69d67B74efB44F5f3a29bAe1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>spare paddle knee mix exotic track taxi wait caught devote stand general soap primary area build donkey valley fit fiber arch craft awesome name</t>
+          <t>trim human draft maple grid focus rain vivid tribe smart lady such</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0xd073d9ee470501cd379fb324679b52306cdb5542d0ee413e1d5f2ad0b0640424</t>
+          <t>7a1da3595a38cade9a142c6646da1fabb7d6ad00e9846380fc486d3d01fe9ccf</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0xdCD11B3edab81C051bf783d51789b403970105df</t>
+          <t>0x8A9625c712047D01c072599524e3b0A128863Cb3</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>weird jeans human asset amount over alley innocent maze quarter tunnel cricket surround orient name inch scorpion organ spy mutual common feature decade style</t>
+          <t>supreme large search reduce vacant rough off trash siren clog game satoshi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0xf92ef5bb06d0813bc1a3a48995efaa19bda93924b392c1338f4d4912e6a84e26</t>
+          <t>f96222409c743ae75035d903771f4ed23696d3867decaf0611e0e072f65b76b8</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0xc3e29e62e3936862E1dC2cb58034a1D40A298597</t>
+          <t>0x353da1359D71f8cb76B60EB3B2A828f424199609</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>happy three occur shove shuffle finger close time work turn sample river away produce ability immune fire spawn fine reject arch chimney pave sword</t>
+          <t>foam hold whisper round current crush capital man elephant foot guilt swamp</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0x68fc2263638c76adcaef12fd9d5afc5d610757400b8d573a155b5a70b0502866</t>
+          <t>d9a4ef913a3f92c6903af270647cacf98d7fd8ba3f237e5ef48477fdf84c147b</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0x25093dbd0933873360F1Da1a260301Ad9Ba997fE</t>
+          <t>0xfe874876b559d370DDF4126bEcC287f81b479C99</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>wing unknown wedding angle foil sword spring reveal produce often fiber mutual fitness chuckle agent victory sudden install wealth interest limb exhaust fantasy height</t>
+          <t>marine clap rather picnic message fox youth leopard current sad state siege</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0xfbbdbfe38465a7b8b4cdc3abb33556c9157e51013f9dd88eafe0bad81c9ed4c3</t>
+          <t>6a43aa5a639e3ef1c0f5402e8e24ee6f4ec6e5cebbb93dd6043f3c12c3c98e86</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0xd9530D4F98FCF71Bfda2798eAf1dF5662E8E9764</t>
+          <t>0xB98bf8A042526018880786e0735591e988F864C9</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>bridge love giraffe twist fabric thank talent expand exchange surround trust peace goose choice penalty spike essay credit match couple monitor frozen table double</t>
+          <t>desert dove wheat inform nasty neutral hood guess acquire vault inject pill</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0x1bd08d88f5c517bfb75a814ebb53a6d0e6485068a68e4d2662231898f0bb773a</t>
+          <t>283bf4fec78cf78e682ed5f06573bafc812a0a71fb796866e9a2a6fac16232e6</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0x005b09cc44854B64BD6a0ec81127c1C77A9c0c7E</t>
+          <t>0x57b0451896F76AA32991741d39A97E2EeAfBA9c8</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>blanket animal mail around coyote camera will analyst exit negative hen room across stove gym private length spy other garage tenant cheese addict kiwi</t>
+          <t>spy mandate shed bundle bomb parrot breeze rubber pole seat appear dynamic</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0x1741221886131a417ec8424ff27dacddf025ad5a0559801a6a742fbdf04e40d3</t>
+          <t>a2b0e4976d353ac4ea3c55ee9a5f136821e8f8247cfd92b1a95c5ffdbb882baa</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0x6994e2582Fa60aBdA1E60c116e5c8752aa1329a6</t>
+          <t>0xB356425A754609256eC2bDC452bf8a8f3b5F27c0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>nephew advice salmon keen moment legal bubble trouble brush alert sport private purpose estate open dog cheese mix always accuse spirit strong trouble music</t>
+          <t>price layer ecology emotion clarify smoke outside sign pony mimic skill search</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0x944082f9bcd8eefec757481d20c74ad59ae69ae6ca042731c01e00dd21ae7a44</t>
+          <t>d49194ed8147e73e77ee6cf848b2fea419c1669f5ab0aabe52ca279283b60b15</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0xE666387c5Bb8A1740C4CC7B82B1C7F206813366A</t>
+          <t>0x48D57f2C536ea8ca7176c22EEEC4Fe3F323fdF6C</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>digital volume left garden cat sunny husband detail snack position broccoli sleep castle boat domain wide glimpse kiwi knock unit system mother abuse quick</t>
+          <t>rebel cotton permit nice soup organ purchase pitch pudding prize library cloth</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0x3dfeb9fcafd23db2dbf9e2cd150c71e5923831903fd5632f6def76ddcd20404d</t>
+          <t>364d02bf663cae06cf519cc0865c6731a1126fcf9db67b667428403478a69bb1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0xDA8E5559EFA933377fda77B7e4FCAb633E7C68e0</t>
+          <t>0x2e7d4726ae6Fa82323A9778c3C9E3d0e09Ce54cc</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>build number mechanic end first save language blouse dance badge laugh elephant candy wheat pledge wrong end dentist emerge gas what public scheme jazz</t>
+          <t>wine sort brown hospital stuff rival draft gold head gesture car project</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0x1dd2ee28a4c5777f9f38c137422df623e215f3e9a7f549875122b00f9d5a302b</t>
+          <t>5fbbddffa8790b78d3e14ac7f28e2fe17b41d570d986a11e50b6e81e83495c2d</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0x432E04ce5420a23F946A67a5ab7336534Cff34E1</t>
+          <t>0x8c909171736d6b46894F8b0C65F897431f465C72</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>way party cram raise empty deny song apple vote repair waste shock start boost swarm tunnel stove auto seven real acid ostrich toast youth</t>
+          <t>palm gallery vacant member oven order afraid taste exclude grow festival neck</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0xf81410c8d894927573c855f5f6d3dee32d4a3376df54d6a1f312d9701f39f8c7</t>
+          <t>612dbc53c782f5dedbacf4d293ee6b3c89797e7fb840c0b76066f36b97370159</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0xc6A46BdF843e70814B1C2011A66676F516e6C8bB</t>
+          <t>0x96C2A12626969B226685a5dE8eF6205Ac2e55Cf1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>health cabbage arena share tomato section sorry civil demise minor endless stem elite easily bus input message admit tobacco divorce brave burst moment traffic</t>
+          <t>pill debris surge east circle shine require rare evoke write liquid clinic</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0x6a23f42de29e418573d94c3a51a526eaa4808b07bba58be0778ca001b43da3bf</t>
+          <t>37381b3703f25076a745c491f8b829a22400da92708c19baa9431d19578128fa</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0xc8E69bAe350A48723069871219890fFAF2e7912e</t>
+          <t>0xE025CA0dF5A042288e6A4ce425c1787975EB04f2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>bread raven street harsh unusual imitate cry bonus foster below exhibit anger reform kiwi behave auction coast carpet flower struggle drive innocent blast shine</t>
+          <t>record thunder crater alien sausage clock super goddess obtain fiscal forward coach</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0x1b764f5bb4aee4e2cd48cb5c02993e045b44f6c518772cc459666ba434e905de</t>
+          <t>82b8b4501479bcdc2dcb03217ae378d415d3640fd661ffb5b3fb42beefa032db</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0xDe2e792113B782B9f16bbd525BCA629D0CDE5Ae9</t>
+          <t>0xD9Cf4f9213dE418A77bF7Ab0C2da0dcD8b6F79A9</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>wisdom morning margin link client six frequent december famous hope avoid glad gather drive divide busy man surprise history stage limit practice spell holiday</t>
+          <t>material toast endless crop crack spare topple uncle omit glove velvet cloud</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0xfc51fe1fc102ad939729c552adac40314606868ff8f986db4db0ea181f52f44b</t>
+          <t>7de8a6af8db4ec3080e34f33184ff92b8d8e02dcdb58dcfceb2c1e3ff6033ebc</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0x935D2AaC25a1ce2BA5e94CBd5E4e3900AC7a70aa</t>
+          <t>0x633573d288FA277b7F936b81CCA21E959F6f4595</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>lift fame nut ripple force spell punch stool thing olive badge swap fine clarify rapid photo case robust end salon can chief reject cupboard</t>
+          <t>attitude frown slush summer code minute ancient chief kid grant banner music</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0x816a4e5edd25b1a26b76b3e0b34445eda56c53ec7d1d233769265f420e4fad39</t>
+          <t>60f874d43488a86a53226c1db1b2566dfe99e982c8c89a9d1f0c721e87f9877c</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0xd618dBc2d65164918Ab69B7dB32CCC73751013e9</t>
+          <t>0xaEFe05f32364DD77F20973dcd8a583f3D312474D</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>kit portion stuff breeze pig symptom ripple labor work excuse wide cream dress mask list only legal human absent sure remember scale similar weather</t>
+          <t>palace asthma scorpion pull define ridge birth coyote torch common elbow salad</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0x7af50b5e0dca49b92e93e2fd89e3ea99742b10e09cd87f6dd802ed0b5b80323f</t>
+          <t>655c598736da77efba33cd86ba1ff245d020844d151088b114d57f3b48ad013a</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0xE08FE1D8c6B86eC919e3434517229E66f3D8fe67</t>
+          <t>0x35E8556F1Df6A23B97755D9fF6B0047d2687401E</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>flavor inherit inside diamond minimum route aspect brief hobby stick wonder because pond scare milk grow select syrup already truth gun wet there glide</t>
+          <t>company quote equip easy weird solve lizard jelly cook elegant venture beef</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0x58ae79d49e98d1790358df6c5ab7f409ea7d80a32338c35b941cf4e67ff3381b</t>
+          <t>e489814c910f4556a22ac18a95af408ffcbdbe829ad2fa99dbc9ada524522172</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0x8a0d97e958BD0eeF2272212aD37bFB72bEC29BA8</t>
+          <t>0x94669A46d003d3Dfe11B041ef0bd4fbCcB5b205b</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>oppose orbit edge uncle wild spice lecture device together butter imitate pride source emotion hover neither correct matrix never sell jungle flip flock render</t>
+          <t>slice naive student live situate method image increase wing strong charge toy</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0x9b937d19764fb1a31fc1e5e3a3e9c5d54d00919b9ca13091265461b790b21655</t>
+          <t>5315f3c080e29c433ace302d789175773db0527af1d43145e1a012ca5cec5291</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0x67CDE0A2d329b63F3B6db1e8646B6436afC472D6</t>
+          <t>0x9CB26c9d95bD3F0cB96000761171A6bA7725ed7C</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>series jelly increase harbor social teach noble atom carry mother gun bubble oxygen short long leisure antique crop pink warm palace lawn order season</t>
+          <t>body human struggle hire brush glass street panther plate spatial corn ritual</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0xc40ef9cab48cdfbd25687222f2059f8ea9e58da0f3fd09e67e947b99f2fc270e</t>
+          <t>69c93cd2ff31a616ac91173e8e9a41ecdab7e785cb02d89dd79d23a269fe25cc</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0x4DFC6163D47989572125A77d33F58Aa6356952f7</t>
+          <t>0x81bcfbeDeA6b63e15Dc63e47F62b5E40E8B84beA</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>bounce benefit normal history recall filter base wing what raven chalk daring found call file hazard street horn dry humble patch ceiling reduce solution</t>
+          <t>trick legend snap squeeze brick chuckle puppy sudden stairs orchard clog carry</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0x1a62a658b61b36acc4bfddf9d64c979bc5c240d58b4fd6edb10eb77a0c49ed06</t>
+          <t>9a76fa4d8471b6cd8d06fe564477a79efca97ff2f1ccdda1a0fdb15581624000</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0x6b807bcC0216C0b69D39cA50A9b5323F17e1b65f</t>
+          <t>0x0380e10844D395D6336E2dC11b964AADD628378A</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>word design patrol state cover host equip breeze sword vacant welcome either youth vendor wheat enrich retreat alcohol metal unfold plug catalog tell cement</t>
+          <t>author echo noodle tone arrow excess security pink hazard first divide useless</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0xfd677a84ea6318dc1308dcdc5e0fe5238ff7e47e7a58b800c230769a6c47f7b1</t>
+          <t>099e0f97c95472168a02bfc0cc2a66642ac1ab8578ae7a8a4bfce728109c5aee</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0x28d02231DF467ED7f0497d27BD1F579faE6AE593</t>
+          <t>0xE9Ae1D4680FDe2f81D7951A2ddE6ADb6714e165C</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>moral bright fold argue reduce panel denial target session jaguar goat outdoor normal demise west leisure drip burden electric idea maximum athlete hen trust</t>
+          <t>toward surface asset reunion walnut omit rail buzz sadness glow brand hard</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0x8fa3816a05cb413f0e9eefc44ee5904e996274be5bfd4323d11db838961c5acf</t>
+          <t>a63ad728f2b6bfb4fde191ecb62708fece609af70fc0473c43f4a50990dbe7de</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0xBA394Be53B1386E2f7cc716a346dF33B93EBA5F7</t>
+          <t>0x96d0EeC0202e8FADc888FacEB704705fe2A41c3d</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>theme slush faith soccer prize unfair crumble approve bounce glare dash moon orchard system crisp similar adapt smile fossil village armed patch december chase</t>
+          <t>slush clap gorilla oxygen secret decorate build wish credit luxury assault good</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0xe019894866eab5da0d30561a6c58dec7c9c1b98cee470319956ffa00bd418e29</t>
+          <t>993bceab88c90945c4b0b349fea72e1bc9175d59f7db06bf75a8cebf086ce883</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0xD44934479A562De18dD737fCe5A8e7B626BB5c0b</t>
+          <t>0x8B4539dc4328d247e013d9bB874bC95cAde62c86</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>trouble object crunch affair despair fantasy stock twin family camp hurry educate model save bulk copy symptom lounge cannon stove student there clog suggest</t>
+          <t>dial olive entire flee replace busy monster fork defy blast stem cabin</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0xe91300d38223c0a635875b528419bea348e97f878180dc908885eb5d77c0cae6</t>
+          <t>33821666b07aba0ed3a85c0001aee9b7b165e2509df8c9d489f6b84a31e1a014</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0x546a7cA2593b9498C408223B681D3b62Ee0e5500</t>
+          <t>0x3EA4F7Dc989ebf8b0D8844438C702724fD6320CA</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>earth hobby people clinic love car shift ticket fluid script armed result feed cruel follow south inhale enlist relax okay glare decorate master silk</t>
+          <t>return pioneer clever pass spirit evil fix grab whale truth despair liberty</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0x456d8a8b15984644b1770d59b8342f5be54a6916ae8173a95ad44cf62c72222e</t>
+          <t>1ca3c496d6fc8ed92cb3836c16bf0e20ab25ba20ea8cf9e264f3b08eb5d7d35c</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0x285Bbab208A099D55FFae7A0Fc3430a5BFEc7DF1</t>
+          <t>0x0FDB4901D578478F4999b9bB472Bad3d9EeD0B24</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>tortoise decorate inspire outdoor surround tuna occur island unusual kick have worry invite around concert green correct gossip scatter month health group inherit barely</t>
+          <t>legal ugly kind bar phrase viable service swear degree need suit title</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0xe58721d54e9da9d4e633b3ee4f45a6fee760184bab32308c9f01c7b6a2cddcf0</t>
+          <t>c9220d3738529dfa0666cddac15e52dd2090c66f717d38009fe39ca90b424b24</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0xF59BD325e1F217480273B6726Ee71d427D5AE1b6</t>
+          <t>0x1E94574112938d7D0BF3148A61437d389eb073CD</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>pen drip resemble frost laptop jaguar gorilla before fever already mad kiwi spray tooth useful inspire carpet day dawn access calm vicious chronic all</t>
+          <t>hip surface staff spike fresh gaze gauge output umbrella lunar avocado solid</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0xa26866dd2eb7d0ee5928a15560e616bdbd2fc9bbfbaa22c700df80a209e70a18</t>
+          <t>547e24126045e82cbbc1bec6f40dd9d1f92f35f48b8104fc637b2a023b289f1b</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0x19354152A0960889D5479866da951576A7e47D53</t>
+          <t>0x1dBE1863415473070D70d58a36215B9aE69f9FE8</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>fashion social prefer special wash tiny chronic science pond drum hip extend permit pink seven begin cruel shrimp custom bicycle until task garlic shoot</t>
+          <t>laptop wild rhythm one correct mom return sniff vague public pony soda</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0x5359bea7687f77c4ca1e07a7c871afa87a334a3128a23498e4da0afee3bc17f6</t>
+          <t>4e544119735e11d85f952925ce9c69de5e30eada65e2825b8c9a8479ac554e49</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0xB579e28186BDc273bcb4bAd9F39731711c1c7721</t>
+          <t>0x3D8321B76f1C426fe90F63c541eafa51c5809fa2</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>lecture captain harvest clock welcome drop runway latin illegal piano gym delay planet cricket vivid envelope assist multiply cabbage verb love candy pulse leisure</t>
+          <t>amount noble raven stuff calm brother firm lava execute mask advance round</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0x7f0445a595bf9486ef5beb711481a01cfa5e66fd4a5e0dd22c7ef9484642ab63</t>
+          <t>1f3f29fcc2e4cc7ec912200ebfe007d3bf6043a42791452249f65bfdf3303f9d</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0x66020b6225c34371df797beA4830dB519F988E60</t>
+          <t>0x1f7A3D43bB93331aeB2EBFf62eDa8BE04cD95B8f</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>burden aware puppy prevent manage come goddess hole paddle protect sugar scrap sand pluck extend naive field near dish civil dry various olympic together</t>
+          <t>demand just place address minute solar face pudding insect sign attract tackle</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0x1e820ab855286e5c190b659ed5976360bbf34d543c9555f270fc94c43be32697</t>
+          <t>98ab0623d33cc07d5639129780e9f1c648a6c4f816b5862d46f61af6c82a5d10</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0x040826bC779757B090c06a751913e352324E9A51</t>
+          <t>0x3997c09d55a6e600f2E65E8D8F457CBaeF98B2B7</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>quick devote seek help cushion gaze seven time chat move lunar eyebrow accuse walk live range vicious debate purchase danger awesome elder joke roast</t>
+          <t>undo knee space smooth pair travel blouse trip weird cinnamon october weapon</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0xafa79b0c358366c1712f1226d21a1428a01bed20ad8ef3870ab89bb1088e9e15</t>
+          <t>dfecdd9ab31f14486648bef29777da4eab320d4a304ba6b4cb4a045c8a9ab522</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0x536D9DC6B060376cAF77Bfe3Cb833483c93DbA39</t>
+          <t>0x0FcC653B909A9dB47f84f34F9f7F2c42e9fA4076</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>fury strategy uncle badge exile jazz clutch face upgrade bacon aunt measure play odor ladder lift giggle recall journey swift wave embark snow slot</t>
+          <t>industry vital worry novel employ glue common vicious clay buyer royal minimum</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0x5e7adbb208b4faeecb228ceea2283d44fa65325f1c0b61f66de1edef7e90b366</t>
+          <t>85c0dd2575b6b362ebb1dee20dbe05410aad623580c14b9475179f5abfb8e6b4</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0x971Bb7174A9E2DdCb3604C8a7e6A745d0B7f56c6</t>
+          <t>0x9D5c3bEF1749C59B3d3e6f278cBc4ec5b456AA8B</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>clap love crunch pyramid cave blue stumble dial meadow spend detect sunset utility lunar liar cactus that diamond broken system defy trap armed interest</t>
+          <t>afraid armor pepper someone twist way ready update toy expose annual foil</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0x29d08cd3d7824c30b5e9e889ba28f1eccf050a203100dfe7a4726e639bce82f3</t>
+          <t>bb66bc4ae96b133dffc28ae4e448bed9f37b90deee53019581a2a8b50fd86495</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0x838946Cb4f15C7a82e3DE2B1b8e9c06f635C7C71</t>
+          <t>0x41Ce7a4F6b00b2C53F1a1828373ee1C791ba40ff</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>junk similar letter carpet ability live junk shallow rely enemy sail draw energy meadow nest hybrid glance unfold cycle fun census ride pelican labor</t>
+          <t>cattle gorilla capital brave thank they yellow december cricket huge robot anger</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0x79591e02116003055e5628b5693ef8a134a11365238062bda4db2f025572e893</t>
+          <t>08ba9d72662c6b81ab74792cae7471a5b04a56013cadc99b3f8859462529c099</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0x063E4b0e40c7D4D1c93576414B742328507e3F3f</t>
+          <t>0xEe7Eb54B349df06df8D38020b036D898639BC3C2</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>crime device come huge ceiling lizard saddle put tortoise daughter verify wrist grab spare vessel merit trigger release rural grab tissue approve this joy</t>
+          <t>bracket swamp picnic aspect vital puzzle survey strong industry illegal satoshi segment</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0x338794b837524f05af7576e586fbcaff3655a0fcc45ce896a6f632ae2c15b833</t>
+          <t>ce41237ce225a979af13427da696b3e3dc374ba7a291557d5cd691fd4fce9203</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0x27C7895ff3fcD4E35830519a25E083360A6Bd19e</t>
+          <t>0xC6b73EBe700ED45e522077a530DCf3B05F9bd305</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>toy bird exchange slender wire flock budget omit puzzle adult crash elder story giraffe square repeat lend surprise long lion lift reduce rhythm farm</t>
+          <t>seminar rebel resemble waste concert intact runway liberty thumb scatter blame razor</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0xe662d13ae5afc2b28764d3aee078c9a3ad68c474ddb57ffb4e0f411817682e32</t>
+          <t>c10d6df2c547eb50d8b3b362de717b2e706dc2c92f9fcf1f814537e2d4c219ac</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0x3116B53E781706C203126fFC64ba7ea15d646ed5</t>
+          <t>0xC1Fb23630b3A4727C84203Ca364ed28ab511f2E1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>trumpet vendor hope viable kick celery wine oxygen federal sport industry kidney kiss play creek humble result essay grit skill swap chalk sugar human</t>
+          <t>what ability prevent wage iron cool chalk enemy opera wedding error carpet</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0xe99e45b5f9a7a24a3ee4f2547a55ccbd37ad4c8ccb77b7c9a59ae53db44bf633</t>
+          <t>9891810c708abb1b1248ab9b2b28ba95476d874d7849b76568ebbdc043ae4b00</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0x21EB34cD633Abf957b5A43D6d8F32DB061a7F18A</t>
+          <t>0x4E32277DDB5BEB775AC89Fde3D8102a8d12F93FA</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>earth situate member seek cluster square such vintage blush liquid nothing obey possible evidence used gadget fade visit brass twenty champion labor pumpkin click</t>
+          <t>draw dove unhappy vital smoke worth zero derive congress nice push flame</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0x4579362b6182c7a6f61fa118904a5b4bfa889bbbf2f551de986cf59260f8ab69</t>
+          <t>2404a72ed39723a3903d5b30342be4e8c8f5aa8a18ddad40bc4e2011194e0d61</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0x6b7E9D20c444C4108B1556Ec307B98B32BAeF3aB</t>
+          <t>0x37E8e81a09906A2568aD64a7AE961bbf0b34465a</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>cream one fee ladder capable earth weird pulse ensure frame venture usual blush genre mimic tiny vehicle oblige winter skirt shine kidney profit kiwi</t>
+          <t>you crawl senior now clay flash story era leaf way home genuine</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0x32f355523e321e8afe4d6c4b4b93c9781188c2233713f1f307f0655c5ef4eaf3</t>
+          <t>c6f3002609a10bacf8bfe9e993b32908293d1d4b85a4d83e494a36e29c39cbf7</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0xa6cFC9D7845493Ff34a65e1147FF46a73b216C71</t>
+          <t>0x7ef3BA9A7df5Ca728288e8F300BaB671230D5f8a</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>brass flee input badge primary crouch pelican forward grow trip wash bus table service gift run wait essence insane curious hundred dinner oak mango</t>
+          <t>rigid clog merge walk giraffe pretty head husband vanish bottom dream lift</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0x1b2b19d288baaa686892de671d1bdd8f7dcf885875eaf669a9d39af6f27ca5f4</t>
+          <t>3b99b16c4a4a3349ae6cc94acc6e64f8196c8faf357819060f71418fc29b1f51</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0xa5217b9fD473A9F6d3372fBF2A78cC0665Bab066</t>
+          <t>0x3a9fA3A5Df4A4A7C4d26F196C2Da862c20C8F364</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>roof sample wood hole error cactus boring erase picture canoe short tiger analyst jaguar cargo swarm crunch federal skin relief green verify slogan review</t>
+          <t>flavor mistake scan know item fee insane address initial choose reunion rescue</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0xbbb7e3f4b654cc40067a63a444331b70f084ee48aedb34ea8f2a5aa665e572fd</t>
+          <t>8ed89272497f20a4d7f0c5fa1904128e8de83b3bee5f6928db0b03e5b1a450ae</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0x8C005EE5742dE603a4199D85352B332d473C0A0B</t>
+          <t>0xA6C2a8eFBA030e1Ec96E190F7Bef1bfab80eeAe5</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>canoe leisure window leisure payment believe load armor notable vague museum fold lens pool faculty genre curtain boat field film match humble dynamic pitch</t>
+          <t>copy reveal remove cry fresh lunar middle doll wool object position purpose</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0x218ff7edbfda1a2960b85f969e1646ad480350146b0836231957ab288cddd135</t>
+          <t>c73c20c55adae78c3c36efc6a5497a811c9e9d3bfdef186f5268879e85e5e722</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0x65f01657374104d685023eb54dB6D46E7b9E0634</t>
+          <t>0xd6Aa8670E21898f811fe3109CB8377dd643E720e</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>orbit antenna eye picture cave real dad abandon ceiling clog news noise crunch burden clog cat outside erosion melt cactus twin warfare cute stadium</t>
+          <t>right solid arrest above float pole tag era game ketchup clever stay</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0x9be13944d2224d65cdb80024e57254cae34e3d0ae11e9d89962a900eb7ee0dae</t>
+          <t>9f2081f87d9ab2e01f2c05960bf31aa447274d132490a63652a66e01121f9c43</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0x72C27CC4D5e5845a7D6EfA0dA69a95ED405665CD</t>
+          <t>0x3221024E35873BE27563e02BAe50f0937D540B86</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>food milk lemon spoon arch pipe desert eagle file must faith gas swallow lunch scene give hidden grass drift pen possible veteran flame history</t>
+          <t>garment anchor catalog brand inherit thought road vibrant squirrel hello post abandon</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0x5ad191ff6940b14a8eea2856324148300db10a7023136b6cbd0b513a89e65613</t>
+          <t>4c42ed5cf1c4c3e0a972af3f1ed00fc6596d87709968857912a2391a13e3acd8</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0x798d89875791d1209D4A84c15819Ab94fCE0D9f1</t>
+          <t>0x66E5CE9D7F6aF7141AB85B9b2a2B90ebC0668D6F</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>host sleep belt possible multiply cook buzz wing dream shoulder hole split play purse view marble wall fit motor recall copy soccer purse rain</t>
+          <t>cup endorse reveal win put celery syrup cage hidden across loyal heavy</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0x6e196453d449165f47e7dd4298ddb2e91a655d3cfc3df6aafa41d9b3019baba5</t>
+          <t>d17d6e713a2af794e1122af3d94bb706646aaba480338bd7ebccbba665d70f61</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0xbe05a39cA3AF49Efd585220e3265497F9060C871</t>
+          <t>0xFe3E2e50cA7841b1B96460E5c160f5e77bd2CE2C</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>differ oil napkin chase garment either rifle honey anger worry vocal kiwi always deposit page moon attack arrive wise myth wire tunnel purity winter</t>
+          <t>knee domain know bullet grace cup inflict august isolate illness fantasy museum</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0x3dd33a4b9355fe8e2e6b6908bfbbd53db0787627bc7c0e6193f1c94fc3d52b97</t>
+          <t>827bfd8ba7165ae9a5a992865c44fa387393840549440c9ed39c7196d55af449</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0x193859cCAdC296EF4540892AA0E3eBFB4B771a85</t>
+          <t>0xE15e5d59145c8D1a485714B98d2f94C04e7FB88a</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>nation sunset also dish rigid alert draft cargo thrive drastic course retire flock unlock seven calm address flock main doll million dilemma merry split</t>
+          <t>busy inherit rapid between ready explain suffer jewel clutch process spike brain</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0x935b301d1f9b9e0c507915e12848c55bf595dc312904036b2a192058ca7c62ee</t>
+          <t>305615094530dfe4ccc49fc08df3748d38f3209f754868c7fe0a2265f31d90ec</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0x0098DEbe961BEa768b545A4957A088541C6bB2a6</t>
+          <t>0x5Fe4ceedeC796611c817F3EB43586dbA82c3d68D</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>liar dance half glory wage cruise split purity crash tattoo maze can satisfy suspect possible artwork maid refuse away second term carbon coast venture</t>
+          <t>such attack regular wise focus name conduct sense pilot alpha subway enlist</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0x80c6e9a1b1cf6269748d72327bca26107bf5b5aa206986168c41e13df644cb37</t>
+          <t>d0bbe63d829ecdb7d4b5f3b23980c9c21e165a8444a572c023216644bb392493</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0xc86CB1C53D98f609EcB52C43C980cE757C642251</t>
+          <t>0x1883f4D809ACa61F01Bd1BB1800163Fb4D09E904</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>hour vintage monkey plastic pair around robust artwork awesome electric now isolate survey radar keen parade marriage maid fantasy assault cross dune adjust evolve</t>
+          <t>multiply jar bid manage hope slam rent danger victory seed morning grace</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0x6e5e863cd309f0186ed0691088ee5cbb4dab615e6d008850c14c06c3408800e2</t>
+          <t>e91e5b2964fe9e34ee879ca6953b437eacf2cd056123e683ecf073da57ead4e8</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0x6733680859B0A9Ec27ea4cDcD525CC3dD28b53aE</t>
+          <t>0x1dfBeE3623a992E130D869d8486D7a58400C081E</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ocean black north capable oven calm clump situate chaos matrix what vibrant clump tank belt ivory peasant autumn horse expose buffalo brick blade post</t>
+          <t>upon adult crane lottery pizza first wire raccoon screen chief tired cliff</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0x98e2de5910f9dc410b164d265127e779b2c5bb453bb7a221f5b72851da3745c5</t>
+          <t>6d4f418eabfc5825c49e77b812370fe1f004ac5d231abe79f3f0d3c38b0dc14e</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0x675cACc9295f110b9989D885f9E122d2823bE6cC</t>
+          <t>0x95DF61c78Fc11b2650Fe6F44ED6e49e853139BC4</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>plug capable auction client forest ball fiscal urban piece order liberty jar index raise elite affair badge drastic share describe cluster hybrid shine draw</t>
+          <t>produce absent monster erase token group hurry carry zone admit warrior attitude</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0xa6c43c3b9565b223d5e77aa4738603bba72d6252002211684b149dc2c6e0317a</t>
+          <t>eb54a2b0ac5986c8502095d604b7db52a292bc27140a68739bbddcf959519206</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>0xE57cfddDCFeB9199fd921035f001a728a2A517c9</t>
+          <t>0x00656f784D16E0e9e7aaBFd7bf75260B1238D853</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>nice empower ginger good marriage skin wealth hollow slogan decorate elevator assume exhibit chaos general glove awesome silver poem anxiety mushroom host champion ready</t>
+          <t>theme snow village narrow furnace welcome lucky proof spy arrange earn front</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0x95692188323885953e0b67cbe7211f86f4f84c98331d10991a9c05091cdc0985</t>
+          <t>408ac33245d7ba27024db50722df71e50b6be2706549d7416b01f2dd3b9c2ba3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0xE2a62d41D0B87b4dd359AF9d8dd224b4D2fd91A3</t>
+          <t>0x4CF2B4A43d4D11b7C6Aba81F89A68faBF836e39a</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>razor easily regret knock explain morning bracket cover three winter dynamic increase dune forget bracket science math eternal off broccoli during prepare shrug upon</t>
+          <t>gap core mechanic follow tilt monkey daughter deposit athlete clump fitness decline</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0xb2a8b2d2bde5091fc6b18ce11f8113395440b686b6078909b2650e344353f1d7</t>
+          <t>be0f68c98f58edfa0d0156f0bdcd907648e477386f2eaa6740446c8b7631d0c6</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0x1Cbf6A1EF43ab4338f80B62fC103F63DbaD3acae</t>
+          <t>0x147164D4856802f1ab81426517a1a8A5B5A6fEdE</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>pumpkin violin feel hair inhale chaos alarm truth draw holiday radar vast trouble february coin mushroom parade tongue jungle vintage october auction person omit</t>
+          <t>major vehicle help economy civil recycle miss gospel volcano news acoustic ripple</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0xadbe895334273a4c81774e426d9ac2f8de90a88b5c8ea01c8de47a19901de8d4</t>
+          <t>0eb0946cf42ad931e675606c2ce1d49012e8868ae480e160d398a42aebca286b</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0x595CBC37918a5B3fe26aB0A838645C8329292F5D</t>
+          <t>0x596B651E334b80AE74247cbe033110358aFB00D8</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>dismiss moment adjust rebel hundred elegant across chicken cotton empty tiger bubble cycle vendor jar head soup awesome leg solar permit online dentist layer</t>
+          <t>share chalk open attract chief approve calm alarm armed poverty half urban</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0x3f51dc0e5996f28f00913d30c927878ea36de45dd350cfe211fd673a3335cea3</t>
+          <t>4741c8effa70969f32d5424ecb07261fd29d5f77bb1dae58317c1707bbcef95c</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0x122eA55e9f1b12FA6C027ebd4a7517CD5E194Ff6</t>
+          <t>0x696F0e2E4de9BD4D43e3CBD24aB5e614b3c26906</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>possible axis lunar matter develop perfect adjust wash gauge leaf snow bright inflict biology success company private welcome artwork around wood smart circle rather</t>
+          <t>unhappy pencil tuition height soap permit buzz simple gaze people print dune</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0xa8821e1444a3c94600e7bb608fd7360e07362cf61174ab3f2834861fd3990a4d</t>
+          <t>aaf16fa243e84e69af6d02a71c3c91dd668a06222f52813c875a534a45955208</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0x1C020Db246093fE71662d4964A5D69b2EF886696</t>
+          <t>0xF39Cd1e5AbfEcF4A0d7e65AbaB6F2788ccE429Fb</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>squeeze subject pumpkin vendor cube stereo elite major dish unhappy summer bounce note cook amount digital seat rail page silly model around ignore grass</t>
+          <t>range replace wrong syrup ten tone amount case monkey blush scout away</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0xd39afeb6f91357ab1204333f3dab648d396a5f4201efc2561e7be458e8185c33</t>
+          <t>4c39f4262199e712aefd5a6c4dabd7dc8df383c513aa08a6a2133584a71475c0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0x1745dFe57CE2F2d600F08a46Fb5536D8Ba4Ace80</t>
+          <t>0x784Bec6C5eb5Dafd7FE8A96F06Be20d930ced489</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>proof afford solid obey squeeze hollow hungry raw jelly oppose glance small grab phrase bid evil will spawn lend never area squirrel miracle disorder</t>
+          <t>embody strong bottom remove duck rich combine rib maple charge comfort twist</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0xac408f3acbfd38d9dbd59477d3718ae636554785826ffb3a15ffca80b5a76359</t>
+          <t>fda8f0517b842d5270fc47a47045d4874228955b033b579cd65e9c5ff8a44e3f</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0xc66530ee26B300e25a7c913C066e3751Bdf2cEd7</t>
+          <t>0xF76e112c43A8C1F1Fe3E01C8d74aa13F1dCeD160</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sing merit speak chuckle output cute shoot chair frown ritual occur october wear just notice crime link visa interest buzz loud very melt mind</t>
+          <t>remember hammer enhance resemble more dress notice boat help celery craft whip</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0xc95173431449d66d71a12e5d9752634c8f86f2e5b99c821e95d68fc843e5e2ac</t>
+          <t>286f2e561fa34c1ddb8908dd9ab1589ab4004d231ba0630a4561760e2eec0ee5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0x6f738a76538E38Fa45018010bC5104C8B78bfe50</t>
+          <t>0x710DfaF5AAB028440C602F38B5b6b7B157cAc640</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>planet rapid chronic power cattle gospel spell suspect agent float pool end tourist dinner true gauge dune arm rough seminar cabbage click pool license</t>
+          <t>pistol ridge illegal work frozen tackle caught merry purpose chat please feel</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0xa5f63ca1d4a244c9b44ed604eb26a024ce5e7cba5304440176f161c1fa556a04</t>
+          <t>13ab110d4cca5bd493c3e8c945f8badbd6bd9f99494017ee3a927687e5d67f9e</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0x7199E2062E2E213361220aa76f33Caaa094729b5</t>
+          <t>0x7C3F8787384BFD5c55c1A1A925e9908F3575Ceb9</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>farm insect debate tray lunch salute poem arena flock offer indoor tiny nice core deer brown drink fitness leopard spread hurry fence until brass</t>
+          <t>ignore slim market kid genuine guide earth scorpion romance pony lazy panther</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0x532ea0e173d8537da9c05b59532dcc713956608e50e8430afe016986faaa3b88</t>
+          <t>8de56f5df702c743fafc96f75f6e9cc38c4b39345a0a385d7038f6459a821ea9</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>0xc3De864bB5feF791F2F49bD5F9576B2954161181</t>
+          <t>0xb1fb5fA0d03D7013B1d0788d6B11f0d5b8b73C58</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>item between cave almost system motor essence urge follow brown tragic switch broccoli march traffic odor brother one someone nurse buyer chase guess pond</t>
+          <t>increase promote snake math fence pink manual room swing office arrange negative</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0x76c2b493036dcd20d3577b5aa3a39bee11c70fb9b4c91cf3573c4bc1f64d59dd</t>
+          <t>5d45135f270dee3d1a154bf3b52a1223e3bb0b1911ce46e44220f6b3b226f390</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0x35979033e0484E2A15B457b98c8f58b465F78e5B</t>
+          <t>0xAa7fCA9BD69173E48ae961A47067fd8F18F57C53</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>jazz brand switch ticket review jaguar beauty save burger culture plunge add hunt equal foam gauge valid pony pact ill sleep torch canoe chase</t>
+          <t>jazz coast virus arrow proof muscle cactus tag tissue critic remember mercy</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0x77636370f0db88ee44edfe1ea6b29b8196f698168304f0d4fe7ab87cb3ca8861</t>
+          <t>03cd2115a652cab7ca20a1a1de29986afb453c4fcea0153a25a7133624dafbee</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>0xBeC9bcA1e5aeE19bEA2F7adC2B3DDbC66829d90D</t>
+          <t>0xa973bD16E7A34dE6f1F7dB0D9B10CEb4556d8e22</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>canoe burden glad chat stable effort obey false amount retire claw bone stereo urge decorate view narrow equip increase bid visual finger skin club</t>
+          <t>lizard journey vibrant bind skin fabric dose asset image spawn song betray</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0x2183d18a136d3c8d65fa920816fca80cad59dece479f930985ca8b0f4eadf2a1</t>
+          <t>0c6f3400cab54278efe6706a276596cf590a8dfacf11a0fcae99aee286180ad2</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>0x171fC369980D08dCE0D79e030F7f79d4C3c51fdb</t>
+          <t>0x5b64E6320dc9daE8065b5918bb04175E402AB6cb</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>course body apology fashion figure suffer fiction memory scrub erase napkin frequent right volcano upper dumb quote genuine chicken point judge ill denial stable</t>
+          <t>diet end uphold chair kit afford boat cake feature baby biology calm</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0x31431c29a9a561b1557457c1c98e4bae5b9deb7bc21fb00c289ed3a78ae1ce9e</t>
+          <t>2108f813b485bd62725492a37688138cb17d2132006d873583f0e5bb6230d01e</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>0x2AD626f145699F23B514A50c9228421695222cD8</t>
+          <t>0xB729486D591271423f7C0579a47Aeeae5958AE32</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>unfold bag joke tattoo pioneer auction foam later ten giant flush enable arrange peasant dune congress ahead latin ginger bag emotion tribe aim round</t>
+          <t>roof garden else urge page marble rigid fix like please cabin olympic</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>0xed2231e16f2a521dd683eadeec356724a0c544510178052fad8808c48dd08155</t>
+          <t>03d3ec769f19f029475a55c50512285e851e808041c105184fde764901c382bf</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0x855E80C6DB91E7729301B8Cd689D532d9a320385</t>
+          <t>0x54be28520EF04ddE82f41999A121f55Fb3E5CF4a</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>enact flush turtle museum coconut hospital patch asset similar sweet gas state method crash position oxygen gravity negative burst sorry teach main arena ivory</t>
+          <t>eyebrow vast access farm rifle field real brother artist glare pitch board</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0x496b3babc8d2cedbe8306dc8fb75806a68c264ea1cf266127c7b67bde90c82db</t>
+          <t>b34859720ecdedf0e86a07410b82bd138c3b6ab16760b3230d0e6890958d6505</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>0x805eCD22e3Aa31cB508286BcA8450Ac73866d3EE</t>
+          <t>0x0074f3C7a7F38411C52a05dDC0adBAe89ba168Ba</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>bar lady rifle chunk theme ketchup aunt cheap quiz silk mixed flame onion crawl neither list control dose announce bird trick asset caught lazy</t>
+          <t>weekend hip armed weather audit silent decline adult noodle page zero nuclear</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0x126f92e6945e00f3c3d137aff91238ac29ac65650c132f6830250b4e861b491b</t>
+          <t>0796bfa661390d1c4db838f670ae9e50fee0f8611537769962756035f9a78a01</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>0xf77d98F855E2cbEdABC0b390d078f588e6736ac4</t>
+          <t>0x61b4c4F3399ed9c824dC2CFd590091621aa7da9A</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>bread youth brief result slush jungle price say trust slam moral outside pig hello silly click flush burger cheese draw settle decorate fetch caught</t>
+          <t>romance bean finish grant mutual submit wheat moral embark animal lift then</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>0x1b7fec6fdbecc4f22a9dffe9b9623ececa48d5b2295559c3d49ca13c46721551</t>
+          <t>6d82aa0409d8228dd969499f1046c711913090d39a740f57b9faf104fef2b79b</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>0x8DB1C9B9A5eC8Da3782C37340915ba05BDfE801E</t>
+          <t>0x6ef73D38ef23e6A1638A6b27b5D6e4fDE179D70a</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>enable expire cook betray few spirit disagree produce slush treat scene express diesel tide nest urge entry memory wise trophy tone laugh absent hello</t>
+          <t>carbon utility rich range shallow trade protect uncle soccer venue ahead celery</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0x494a0cbe8ab559a40fb55dcc5cfb022863d9c3a5277b4bb15ff1f47e44fb002b</t>
+          <t>10f899e94c72166623fc1609757919c30dd446a405326f278853d3439e697ce8</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0x290f63daA23b453090DDB30d96Ae5dD7445146B6</t>
+          <t>0x028560a35B2C4607b2DeE2f1BcFf259bd7E5F538</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>meat quote fuel record lawsuit auto give frozen voice tomorrow verify law rifle risk also field lamp great like rice canyon save point way</t>
+          <t>deliver canal ramp multiply lumber economy speed use jealous above inspire media</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0x8a160177d9e7e21f189aedf57c87cabefb9b74c1d2af7cccc606dc921d7fa9d7</t>
+          <t>c78a459c38137c1fb12351492e79cd72852f6fcfb2b5f7a8d8a1e882a3ecc847</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>0x79e2D654e89ACe6023695F85839672D3D28fE28c</t>
+          <t>0x5F92bb77510E7580d538379Dc69DFd58F0C5F439</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>stay own visual daughter ozone attack urban other glare tourist father retire motor aware lizard illness donkey century health brass senior chat hurt injury</t>
+          <t>resource magic income require grunt hazard region address join apple dentist fit</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0xd4f3c3d39be9e81cfbd4e862dcbd4edbf90620a0b3894124ada88d9c3a4d9bf3</t>
+          <t>f27a18b83b540b982caa3384476e22e3b5247bdf6a59cea1b0b30e057ba87077</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0x79cFA4b7cf54e072Ba3148E6933F8399D2Ce3809</t>
+          <t>0xd2e63c2108c59f3138Fad1b120c3CF7E26411557</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>confirm law zoo trigger success wrist acquire vast glove trial pill layer walk adult alarm nothing host pool wire amount pupil increase sort beef</t>
+          <t>game tooth ivory deer endorse maid pear grunt alien album glue van</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0x2eefbffff44d85fcc08f8d63bd06933f2f68078174b66e1503f0840adee573e0</t>
+          <t>6abd09274cef54655dcf723740397c59c00f99205459df561ed8894e0edb45af</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0x86beA94242b9771332cfCeebbA9357369Db9e37E</t>
+          <t>0xf547894594F9205d3c20baC9D740EC4C0548a6Df</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>impact ridge silk judge bicycle tackle minute vessel device electric stay concert issue assist oxygen situate spoon birth jungle frown reduce theme height country</t>
+          <t>much board bid project field cross dutch capital lens kind rude nose</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0x71d733223c515fba2357983ca8ef5397576a1ba7964dd282d5e42ecb41c01aa9</t>
+          <t>3c75aa6cc7fed7fd0700562954576743485a93ff1227725413f1f5c2f5e4e4c2</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>0xd6a9ed3f0f077EDC4D615C4d5AeDAE6994878547</t>
+          <t>0x4984DA6a9304B37860fC173237d4cE5B3C2b6aE9</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bright castle seven year power denial imitate tooth material stone fossil truth goose time seven harvest luggage doctor census control purpose race ethics risk</t>
+          <t>behave fix axis wheat salt senior gadget fabric south left arrest bargain</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0x1c047312ff7a9474dc5f2688fac96ff4e649c4b12b4b84c8089517bae760d36d</t>
+          <t>a78007ee9cdcf7e3ba5a3f8f7f7b230c57bea9351609f0a51d65db52552929d8</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0x6b6a1d2A7B5CeFc131605d7f46e55619606C5941</t>
+          <t>0xE211E38dAA224D6C487B0cB0a2D27031522fa493</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>skirt impact drop electric push crumble interest stove wealth winter welcome stage breeze dose guilt acid garage priority push twist chat trash panel ceiling</t>
+          <t>pistol curtain goose chef country ordinary page fuel document unveil trumpet width</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0xcaae390da3baea699d6eb5f83f83e56a11b88319e80f5f755ebaf5c26dcee7e1</t>
+          <t>fa9e2d0266c2f5a86e34cd44f6865788584fc1f84f7994dae77fcedfb5f10239</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>0x4396D460E19Cc65C34749c827577074C53C2C15D</t>
+          <t>0x38620675EA558F783ab2CB081A0E0C8891ef3198</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>soup cable frozen denial federal illness scare remain skull roast stamp panic sing rack auction now emerge action stamp hold ancient soccer when rich</t>
+          <t>lunch teach flight meadow style diary address pool shove reward seek vocal</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>0xcfe3fd769d3546e27015accad76351cfdc956103bcb948a05351b640899bbe8d</t>
+          <t>9f9382d4d6375d4cc1c30e20dfc1acd0dd2cda7758b055711b3e74cbf3599f11</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0xF3c69d99a2B73C3BE90e5e8CcAc5dD9a7cd04AF9</t>
+          <t>0x12251955d468F32c7E3c9Fcbd6A6C9ACc79375b6</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>target attract once retire donor element scan album flower squirrel summer name bag indoor idle region also elite useless warm elegant better inherit run</t>
+          <t>awkward again practice rare method shallow object robot police drill hour manual</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>0xdde1da6a5bf4148f70082f599a7764c96118e61c2da4074903c07b94782b1cf5</t>
+          <t>e932b92ec6b8733042085cdddd955c9b26ad671a21fd543bb3499a941e061f79</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0x59a8656959390b0A3eeE54308A6F168aE5aa8ac0</t>
+          <t>0xD46be299222952D6A54b3AE0948A634Db1102E6B</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>hurry fold someone soup unveil upgrade summer isolate real exit invite sense recall when outside exact length swear lawn midnight private daring electric have</t>
+          <t>mother alarm symptom share error animal boat rhythm nothing wide repair ripple</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>0x6fab533c67fee7dd764bb4b2e9fdd861eb37f4676272801b71f8463ab26f11db</t>
+          <t>053de57b021ab47460ae514faee725981c2350d7bd5f2afc1a725293e031c169</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0x1D7384d04f0D61b171169717b5d200d2058dF077</t>
+          <t>0x5c8bde2139007Bb853a2e07BE68ea66a4435D44C</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>topple circle direct panel jungle enroll human inherit panic pulp seek palm drip play fiction enemy letter message unveil castle balance before neglect apology</t>
+          <t>scan steak forward treat champion metal differ short fruit skate skull sea</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>0xe52524fa4fc790965bb39e9fb5af0c4fa4334c95724f80917fb991c11a286500</t>
+          <t>57f70f7e7c5797c96e8cf65d4cca86a5b5a1a9b15d01228a134ee5fd1c28d564</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0x521045e2b39e5F4f664a4F77059403853Ab1B397</t>
+          <t>0x695cB0570E25750FFacb0551166B86c70415eEd3</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>regret swamp naive diesel satisfy wrist lucky female layer inhale memory used short daughter afford laugh bundle width afraid lounge random reason focus claim</t>
+          <t>mind van aerobic forward sample desk image labor blast across script destroy</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>0xb4bb664a9ecbf5fce12aa77e4e762bf7ec6c6f811bec1e5f5812422b1b661689</t>
+          <t>099f4bbbc05631f173bb9798ad8cbdd8c2bd9635f828228ee5acb7b988504427</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>0xF344d6533079a0620F26C9f971bE6ECB67b3BB09</t>
+          <t>0x74BbF806063fa8cA37DAffafBF559E7916726F66</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>about pole museum frog mother photo senior problem creek scorpion mad move elbow will aerobic canoe biology ocean tobacco sketch amazing wedding strike mansion</t>
+          <t>various leave achieve shuffle must dawn cruise pulp evolve sail budget negative</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>0x0074f246ae99034770ed5b33382616c86473f641090c16731f8ce5107df1f5c4</t>
+          <t>be7599e27f43954eb8bf571496583d8f617bbd04c1dc4cc59797dc8c166f31ff</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>0xF1A84EB706BEda5De8eAcd8782d4B1ea3931336F</t>
+          <t>0x81C45b60abDAA0Bd7aa8958BA979D0806264141D</t>
         </is>
       </c>
     </row>
